--- a/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_003.xlsx
+++ b/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_003.xlsx
@@ -693,148 +693,148 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>14.28659723702208</v>
+        <v>14.94009219276394</v>
       </c>
       <c r="D2" t="n">
-        <v>11.53582217844316</v>
+        <v>18.32766728656312</v>
       </c>
       <c r="E2" t="n">
-        <v>11.32673457192579</v>
+        <v>6.43001806166424</v>
       </c>
       <c r="F2" t="n">
-        <v>12.32567475676486</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>27.52279790750391</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>82.11789469549466</v>
+        <v>68.53484689898201</v>
       </c>
       <c r="I2" t="n">
-        <v>30.12498508225034</v>
+        <v>11.90074896844377</v>
       </c>
       <c r="J2" t="n">
-        <v>74.77903036291325</v>
+        <v>21.90285641386336</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.725842095257224</v>
       </c>
       <c r="L2" t="n">
-        <v>26.94542186717738</v>
+        <v>74.55550878222076</v>
       </c>
       <c r="M2" t="n">
-        <v>31.93078403212156</v>
+        <v>70.94766921726438</v>
       </c>
       <c r="N2" t="n">
-        <v>21.43122745094584</v>
+        <v>83.26330165600126</v>
       </c>
       <c r="O2" t="n">
-        <v>51.86152383568113</v>
+        <v>155.3387983499738</v>
       </c>
       <c r="P2" t="n">
-        <v>24.9815900177318</v>
+        <v>38.91213824762334</v>
       </c>
       <c r="Q2" t="n">
-        <v>42.49151356925415</v>
+        <v>151.1506397210067</v>
       </c>
       <c r="R2" t="n">
-        <v>53.81251802289984</v>
+        <v>64.89403219466513</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36361069174544</v>
+        <v>49.50082414824624</v>
       </c>
       <c r="T2" t="n">
-        <v>64.72371951866083</v>
+        <v>50.30696476937426</v>
       </c>
       <c r="U2" t="n">
-        <v>84.06098757423892</v>
+        <v>72.65150679814241</v>
       </c>
       <c r="V2" t="n">
-        <v>148.7713607155447</v>
+        <v>89.83414884846772</v>
       </c>
       <c r="W2" t="n">
-        <v>88.19049944022134</v>
+        <v>67.19142266098712</v>
       </c>
       <c r="X2" t="n">
-        <v>104.2423082387864</v>
+        <v>18.01813379313206</v>
       </c>
       <c r="Y2" t="n">
-        <v>95.34566915726397</v>
+        <v>8.855774821517691</v>
       </c>
       <c r="Z2" t="n">
-        <v>44.03207290010322</v>
+        <v>63.48867213976766</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.43796069389308</v>
+        <v>61.83761316406363</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.95109577810506</v>
+        <v>63.68329901133361</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.5569661898958</v>
+        <v>100.8748842927289</v>
       </c>
       <c r="AD2" t="n">
-        <v>122.7421022285331</v>
+        <v>138.2067585108989</v>
       </c>
       <c r="AE2" t="n">
-        <v>129.8984485579238</v>
+        <v>174.9313080675668</v>
       </c>
       <c r="AF2" t="n">
-        <v>153.1998709979306</v>
+        <v>113.454909714538</v>
       </c>
       <c r="AG2" t="n">
-        <v>162.63123819606</v>
+        <v>87.18220971971748</v>
       </c>
       <c r="AH2" t="n">
-        <v>67.39446446622635</v>
+        <v>53.62964631370987</v>
       </c>
       <c r="AI2" t="n">
-        <v>118.017428439864</v>
+        <v>101.2407489732864</v>
       </c>
       <c r="AJ2" t="n">
-        <v>90.8404660458264</v>
+        <v>82.06378224861568</v>
       </c>
       <c r="AK2" t="n">
-        <v>119.7495278576105</v>
+        <v>91.75940301948762</v>
       </c>
       <c r="AL2" t="n">
-        <v>119.7720040567957</v>
+        <v>39.48807365845852</v>
       </c>
       <c r="AM2" t="n">
-        <v>69.77324321010271</v>
+        <v>51.62807986436901</v>
       </c>
       <c r="AN2" t="n">
-        <v>22.74438575881576</v>
+        <v>20.90720668539009</v>
       </c>
       <c r="AO2" t="n">
-        <v>28.14789492142848</v>
+        <v>38.53974269150842</v>
       </c>
       <c r="AP2" t="n">
-        <v>16.00379855127594</v>
+        <v>19.53521690773705</v>
       </c>
       <c r="AQ2" t="n">
-        <v>20.31812480405888</v>
+        <v>16.25274572696854</v>
       </c>
       <c r="AR2" t="n">
-        <v>25.35350373892236</v>
+        <v>17.16298115138047</v>
       </c>
       <c r="AS2" t="n">
-        <v>35.27808248419735</v>
+        <v>24.3602592006589</v>
       </c>
       <c r="AT2" t="n">
-        <v>26.93226460852246</v>
+        <v>14.93712078427071</v>
       </c>
       <c r="AU2" t="n">
-        <v>12.62852667984086</v>
+        <v>19.63189992785184</v>
       </c>
       <c r="AV2" t="n">
-        <v>15.12836295964759</v>
+        <v>23.03625026876242</v>
       </c>
       <c r="AW2" t="n">
-        <v>14.15833869662992</v>
+        <v>41.40302491771752</v>
       </c>
       <c r="AX2" t="n">
-        <v>19.92924071741895</v>
+        <v>27.32297614812806</v>
       </c>
     </row>
     <row r="3">
@@ -845,148 +845,148 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.204848025123765</v>
+        <v>3.097865038793833</v>
       </c>
       <c r="D3" t="n">
-        <v>1.515794386692942</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>3.011439607682338</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>13.66841473087583</v>
+        <v>8.979784340045017</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6864578971056894</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>5.342402522202459</v>
+        <v>3.178045899815398</v>
       </c>
       <c r="I3" t="n">
-        <v>1.716801550503515</v>
+        <v>5.932037215314532</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9994485629585356</v>
+        <v>2.945928013853798</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3964139446541373</v>
+        <v>1.65246191481631</v>
       </c>
       <c r="L3" t="n">
-        <v>1.787879201616372</v>
+        <v>1.208621809391892</v>
       </c>
       <c r="M3" t="n">
-        <v>5.064287443927335</v>
+        <v>4.535375383546042</v>
       </c>
       <c r="N3" t="n">
-        <v>10.28426015636697</v>
+        <v>2.821629569871737</v>
       </c>
       <c r="O3" t="n">
-        <v>7.063748671501817</v>
+        <v>1.483410631219042</v>
       </c>
       <c r="P3" t="n">
-        <v>2.197497734680137</v>
+        <v>10.8099895004778</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.229093020880898</v>
+        <v>6.664570779598467</v>
       </c>
       <c r="R3" t="n">
-        <v>4.767230126691388</v>
+        <v>3.413050228294042</v>
       </c>
       <c r="S3" t="n">
-        <v>2.990125820756099</v>
+        <v>0.3571641342484356</v>
       </c>
       <c r="T3" t="n">
-        <v>3.135844074633243</v>
+        <v>2.723530262039465</v>
       </c>
       <c r="U3" t="n">
-        <v>1.429384729896711</v>
+        <v>4.309094809478421</v>
       </c>
       <c r="V3" t="n">
-        <v>2.731476275844249</v>
+        <v>3.146754926498074</v>
       </c>
       <c r="W3" t="n">
-        <v>4.306598528879615</v>
+        <v>3.852226998760651</v>
       </c>
       <c r="X3" t="n">
-        <v>0.1365696425005026</v>
+        <v>1.779658233357731</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.262474734024463</v>
+        <v>2.395057941496405</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.26984431695382</v>
+        <v>5.43592623687329</v>
       </c>
       <c r="AA3" t="n">
-        <v>6.437541436836351</v>
+        <v>3.274608003608826</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.899242051169926</v>
+        <v>4.99159514078735</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.791059896123237</v>
+        <v>4.648338122267436</v>
       </c>
       <c r="AD3" t="n">
-        <v>5.983052612862561</v>
+        <v>2.84283959717884</v>
       </c>
       <c r="AE3" t="n">
-        <v>6.394578665074845</v>
+        <v>8.624961119929612</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.802270385024057</v>
+        <v>6.530228211792411</v>
       </c>
       <c r="AG3" t="n">
-        <v>3.194358317454181</v>
+        <v>5.491770110818242</v>
       </c>
       <c r="AH3" t="n">
-        <v>4.379695298470133</v>
+        <v>6.469946981729979</v>
       </c>
       <c r="AI3" t="n">
-        <v>2.826282802606028</v>
+        <v>7.363502868054455</v>
       </c>
       <c r="AJ3" t="n">
-        <v>7.50936262446423</v>
+        <v>5.754225346403214</v>
       </c>
       <c r="AK3" t="n">
-        <v>1.395407892380241</v>
+        <v>6.935913691594795</v>
       </c>
       <c r="AL3" t="n">
-        <v>2.649224664649636</v>
+        <v>4.50191416426435</v>
       </c>
       <c r="AM3" t="n">
-        <v>6.736549077908159</v>
+        <v>3.821750805188422</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.55177107872727</v>
+        <v>4.412198292741395</v>
       </c>
       <c r="AO3" t="n">
-        <v>3.418701882907192</v>
+        <v>3.550239562500585</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.555692880426801</v>
+        <v>4.028357717055838</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.936917243993311</v>
+        <v>0.4929143682617191</v>
       </c>
       <c r="AR3" t="n">
-        <v>5.654178634988815</v>
+        <v>3.387554022382757</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.524205852411148</v>
+        <v>1.868598502267538</v>
       </c>
       <c r="AT3" t="n">
-        <v>4.124648182614512</v>
+        <v>5.971108347063543</v>
       </c>
       <c r="AU3" t="n">
-        <v>3.764185737658605</v>
+        <v>5.1521404875398</v>
       </c>
       <c r="AV3" t="n">
-        <v>2.995318481160111</v>
+        <v>2.854990403887992</v>
       </c>
       <c r="AW3" t="n">
-        <v>2.982792036162755</v>
+        <v>3.61954265270349</v>
       </c>
       <c r="AX3" t="n">
-        <v>5.039986743122868</v>
+        <v>3.314824240833645</v>
       </c>
     </row>
     <row r="4">
@@ -997,148 +997,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>8.020273440742011</v>
+        <v>18.16667507912894</v>
       </c>
       <c r="D4" t="n">
-        <v>11.50574245366439</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9.439111667703935</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>12.17380017445038</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.042419745497206</v>
+        <v>8.491190947714088</v>
       </c>
       <c r="H4" t="n">
-        <v>78.76328642143326</v>
+        <v>91.23175145228343</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>10.51464041365372</v>
       </c>
       <c r="J4" t="n">
-        <v>192.2665714653166</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>49.82077813159993</v>
+        <v>23.1145948374489</v>
       </c>
       <c r="L4" t="n">
-        <v>34.6627444699588</v>
+        <v>47.46190149978219</v>
       </c>
       <c r="M4" t="n">
-        <v>110.428192061955</v>
+        <v>67.89096349365644</v>
       </c>
       <c r="N4" t="n">
-        <v>77.91256816746619</v>
+        <v>31.66315828023038</v>
       </c>
       <c r="O4" t="n">
-        <v>48.10670396102392</v>
+        <v>0.008306565707563607</v>
       </c>
       <c r="P4" t="n">
-        <v>48.53527403985795</v>
+        <v>68.20140417333248</v>
       </c>
       <c r="Q4" t="n">
-        <v>115.8742154498932</v>
+        <v>230.1516598852857</v>
       </c>
       <c r="R4" t="n">
-        <v>23.47369234190179</v>
+        <v>94.69531385006405</v>
       </c>
       <c r="S4" t="n">
-        <v>43.27273217204357</v>
+        <v>30.77597430871433</v>
       </c>
       <c r="T4" t="n">
-        <v>68.1657080198172</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>98.27344725797013</v>
+        <v>50.45918982957213</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>61.12718616550275</v>
       </c>
       <c r="W4" t="n">
-        <v>40.03749162945525</v>
+        <v>43.37733642409941</v>
       </c>
       <c r="X4" t="n">
-        <v>91.28876734745644</v>
+        <v>76.241977338883</v>
       </c>
       <c r="Y4" t="n">
-        <v>61.57711210080567</v>
+        <v>44.13061503033487</v>
       </c>
       <c r="Z4" t="n">
-        <v>94.18698597987101</v>
+        <v>59.36614630108306</v>
       </c>
       <c r="AA4" t="n">
-        <v>48.95527351566156</v>
+        <v>46.29406617346667</v>
       </c>
       <c r="AB4" t="n">
-        <v>86.585561445511</v>
+        <v>69.31109215053715</v>
       </c>
       <c r="AC4" t="n">
-        <v>37.91075887684565</v>
+        <v>65.65952876270089</v>
       </c>
       <c r="AD4" t="n">
-        <v>95.69614704898467</v>
+        <v>42.7551997881358</v>
       </c>
       <c r="AE4" t="n">
-        <v>98.77487534314234</v>
+        <v>97.51234260630686</v>
       </c>
       <c r="AF4" t="n">
-        <v>85.94283299434102</v>
+        <v>65.50389162183609</v>
       </c>
       <c r="AG4" t="n">
-        <v>95.0478215557555</v>
+        <v>64.45326092675434</v>
       </c>
       <c r="AH4" t="n">
-        <v>28.05530836814631</v>
+        <v>58.94739821683167</v>
       </c>
       <c r="AI4" t="n">
-        <v>70.02840763399581</v>
+        <v>28.19224264926103</v>
       </c>
       <c r="AJ4" t="n">
-        <v>60.48240237530582</v>
+        <v>15.83604164710784</v>
       </c>
       <c r="AK4" t="n">
-        <v>14.96205079562554</v>
+        <v>36.86895280423788</v>
       </c>
       <c r="AL4" t="n">
-        <v>56.3203205043219</v>
+        <v>15.71514199992387</v>
       </c>
       <c r="AM4" t="n">
-        <v>24.96237207152284</v>
+        <v>10.94645978596524</v>
       </c>
       <c r="AN4" t="n">
-        <v>31.4393330788739</v>
+        <v>18.77908859352201</v>
       </c>
       <c r="AO4" t="n">
-        <v>11.41476953061295</v>
+        <v>31.14521520716718</v>
       </c>
       <c r="AP4" t="n">
-        <v>21.03188930309184</v>
+        <v>23.85880023224738</v>
       </c>
       <c r="AQ4" t="n">
-        <v>29.84169425462029</v>
+        <v>14.29736669648599</v>
       </c>
       <c r="AR4" t="n">
-        <v>13.01108342834219</v>
+        <v>11.21716082240177</v>
       </c>
       <c r="AS4" t="n">
-        <v>22.56085327258725</v>
+        <v>26.03235903840497</v>
       </c>
       <c r="AT4" t="n">
-        <v>9.061887949419562</v>
+        <v>8.254961614465824</v>
       </c>
       <c r="AU4" t="n">
-        <v>10.38981682306454</v>
+        <v>7.297827530167085</v>
       </c>
       <c r="AV4" t="n">
-        <v>12.97884849530422</v>
+        <v>11.46889249807279</v>
       </c>
       <c r="AW4" t="n">
-        <v>29.25971898709185</v>
+        <v>11.79766578987077</v>
       </c>
       <c r="AX4" t="n">
-        <v>10.61560749518486</v>
+        <v>11.69854542741597</v>
       </c>
     </row>
     <row r="5">
@@ -1149,148 +1149,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>17.27299170430903</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>22.29910159514732</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>29.08686346174166</v>
+        <v>14.86247946022488</v>
       </c>
       <c r="F5" t="n">
-        <v>69.48436152285758</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>13.49359992383018</v>
+        <v>20.13381118824789</v>
       </c>
       <c r="H5" t="n">
-        <v>11.70929568585771</v>
+        <v>6.509385968715129</v>
       </c>
       <c r="I5" t="n">
-        <v>75.24671951773954</v>
+        <v>45.86969658766117</v>
       </c>
       <c r="J5" t="n">
-        <v>46.38579299925341</v>
+        <v>15.40753915739249</v>
       </c>
       <c r="K5" t="n">
-        <v>48.92569364358697</v>
+        <v>20.19887557649897</v>
       </c>
       <c r="L5" t="n">
-        <v>140.4359083981398</v>
+        <v>28.36201571168912</v>
       </c>
       <c r="M5" t="n">
-        <v>102.0618258106067</v>
+        <v>12.35616927722775</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>8.934205451663935</v>
       </c>
       <c r="O5" t="n">
-        <v>4.960442261260082</v>
+        <v>24.25595620399146</v>
       </c>
       <c r="P5" t="n">
-        <v>30.7363789443733</v>
+        <v>58.51345564172622</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.10681071549612</v>
+        <v>4.128738036173187</v>
       </c>
       <c r="R5" t="n">
-        <v>7.046901289902527</v>
+        <v>66.24514938128657</v>
       </c>
       <c r="S5" t="n">
-        <v>21.93781968584376</v>
+        <v>49.53587054409751</v>
       </c>
       <c r="T5" t="n">
-        <v>13.62204465326275</v>
+        <v>74.76157870663792</v>
       </c>
       <c r="U5" t="n">
-        <v>29.53595100301222</v>
+        <v>34.45053739287497</v>
       </c>
       <c r="V5" t="n">
-        <v>87.35530331003133</v>
+        <v>44.50898760425445</v>
       </c>
       <c r="W5" t="n">
-        <v>38.39989534303131</v>
+        <v>52.10195756889996</v>
       </c>
       <c r="X5" t="n">
-        <v>66.42786268299976</v>
+        <v>203.1186733281455</v>
       </c>
       <c r="Y5" t="n">
-        <v>32.41204999921164</v>
+        <v>91.41826539938023</v>
       </c>
       <c r="Z5" t="n">
-        <v>44.45656444221601</v>
+        <v>26.22082612708122</v>
       </c>
       <c r="AA5" t="n">
-        <v>34.89841363198987</v>
+        <v>37.47458580816016</v>
       </c>
       <c r="AB5" t="n">
-        <v>34.1727266911075</v>
+        <v>71.46346468680076</v>
       </c>
       <c r="AC5" t="n">
-        <v>24.61544581900334</v>
+        <v>33.6200497145789</v>
       </c>
       <c r="AD5" t="n">
-        <v>21.69951257031411</v>
+        <v>45.95731821956838</v>
       </c>
       <c r="AE5" t="n">
-        <v>57.24154105435784</v>
+        <v>21.41469082357014</v>
       </c>
       <c r="AF5" t="n">
-        <v>18.21091681692932</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>53.47413411906407</v>
+        <v>21.41518520548967</v>
       </c>
       <c r="AH5" t="n">
-        <v>13.14526954388337</v>
+        <v>2.650266516281511</v>
       </c>
       <c r="AI5" t="n">
-        <v>45.35255888205415</v>
+        <v>54.77330157056127</v>
       </c>
       <c r="AJ5" t="n">
-        <v>181.2377825785724</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>23.66011514096411</v>
+        <v>20.35198208274939</v>
       </c>
       <c r="AL5" t="n">
-        <v>27.6833309496964</v>
+        <v>32.56020606361338</v>
       </c>
       <c r="AM5" t="n">
-        <v>7.242218273245038</v>
+        <v>29.18045350750842</v>
       </c>
       <c r="AN5" t="n">
-        <v>12.44673565598652</v>
+        <v>9.320459348043126</v>
       </c>
       <c r="AO5" t="n">
-        <v>25.1443389309994</v>
+        <v>8.172177206848932</v>
       </c>
       <c r="AP5" t="n">
-        <v>30.83738590576376</v>
+        <v>20.2754790166777</v>
       </c>
       <c r="AQ5" t="n">
-        <v>28.13368386016748</v>
+        <v>26.01802140072503</v>
       </c>
       <c r="AR5" t="n">
-        <v>29.44740435151604</v>
+        <v>25.76752697968215</v>
       </c>
       <c r="AS5" t="n">
-        <v>25.4001318096367</v>
+        <v>18.37176732280163</v>
       </c>
       <c r="AT5" t="n">
-        <v>11.26650485927427</v>
+        <v>31.65695585271077</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.042066373184445</v>
+        <v>24.43352650787701</v>
       </c>
       <c r="AV5" t="n">
-        <v>38.65138468079896</v>
+        <v>22.19837440934792</v>
       </c>
       <c r="AW5" t="n">
-        <v>39.63718005691246</v>
+        <v>24.69795525614386</v>
       </c>
       <c r="AX5" t="n">
-        <v>30.91431132399881</v>
+        <v>29.87467880913189</v>
       </c>
     </row>
     <row r="6">
@@ -1304,145 +1304,145 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>7.943270934198207</v>
+        <v>7.279682048801617</v>
       </c>
       <c r="E6" t="n">
-        <v>3.053898374110611</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>7.789519879771095</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>14.60901259116497</v>
       </c>
       <c r="H6" t="n">
-        <v>12.45547163596482</v>
+        <v>7.335754176033033</v>
       </c>
       <c r="I6" t="n">
-        <v>20.67097323841121</v>
+        <v>15.4950128570638</v>
       </c>
       <c r="J6" t="n">
-        <v>40.4347450885289</v>
+        <v>13.71078069558255</v>
       </c>
       <c r="K6" t="n">
-        <v>20.41779414728343</v>
+        <v>33.82185755892204</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>10.59199970636496</v>
       </c>
       <c r="M6" t="n">
-        <v>107.0882744863454</v>
+        <v>30.16689936633137</v>
       </c>
       <c r="N6" t="n">
-        <v>41.23260148921732</v>
+        <v>13.23486416642663</v>
       </c>
       <c r="O6" t="n">
-        <v>24.04409078076146</v>
+        <v>14.43974686161809</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>24.82562058343846</v>
       </c>
       <c r="Q6" t="n">
-        <v>96.51344215436772</v>
+        <v>24.37295885583992</v>
       </c>
       <c r="R6" t="n">
-        <v>2.241823115778013</v>
+        <v>34.34561652732986</v>
       </c>
       <c r="S6" t="n">
-        <v>14.0150019940821</v>
+        <v>1.308619357044062</v>
       </c>
       <c r="T6" t="n">
-        <v>24.24032187618482</v>
+        <v>39.14338752069194</v>
       </c>
       <c r="U6" t="n">
-        <v>17.11462806345482</v>
+        <v>16.41163085233494</v>
       </c>
       <c r="V6" t="n">
-        <v>35.36873938327744</v>
+        <v>28.71297148930721</v>
       </c>
       <c r="W6" t="n">
-        <v>24.35975174300067</v>
+        <v>15.41839876969191</v>
       </c>
       <c r="X6" t="n">
-        <v>11.84499824215345</v>
+        <v>87.19557278731095</v>
       </c>
       <c r="Y6" t="n">
-        <v>12.42050011118331</v>
+        <v>21.30291209873992</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.75631712353929</v>
+        <v>16.45103572230114</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.73229445240114</v>
+        <v>10.44324507660611</v>
       </c>
       <c r="AB6" t="n">
-        <v>22.60602484743162</v>
+        <v>9.336502926758305</v>
       </c>
       <c r="AC6" t="n">
-        <v>18.23355877313001</v>
+        <v>15.66223527264953</v>
       </c>
       <c r="AD6" t="n">
-        <v>15.43499392016308</v>
+        <v>18.93840816492877</v>
       </c>
       <c r="AE6" t="n">
-        <v>9.224891324683608</v>
+        <v>28.32724984185941</v>
       </c>
       <c r="AF6" t="n">
-        <v>12.69022770035959</v>
+        <v>21.82590685511193</v>
       </c>
       <c r="AG6" t="n">
-        <v>17.45981185220097</v>
+        <v>15.44209046146866</v>
       </c>
       <c r="AH6" t="n">
-        <v>12.90944382431336</v>
+        <v>22.34062534958952</v>
       </c>
       <c r="AI6" t="n">
-        <v>4.006078189463242</v>
+        <v>8.366933395551678</v>
       </c>
       <c r="AJ6" t="n">
-        <v>7.762708255770986</v>
+        <v>3.151033245472054</v>
       </c>
       <c r="AK6" t="n">
-        <v>22.93214961368216</v>
+        <v>0.9852490512912748</v>
       </c>
       <c r="AL6" t="n">
-        <v>4.693471094054023</v>
+        <v>7.966957871698917</v>
       </c>
       <c r="AM6" t="n">
-        <v>5.908896351926204</v>
+        <v>5.949725322482344</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.3163564145257505</v>
+        <v>10.25647306245327</v>
       </c>
       <c r="AO6" t="n">
-        <v>2.018406191430342</v>
+        <v>2.994413080594018</v>
       </c>
       <c r="AP6" t="n">
-        <v>3.19957320278162</v>
+        <v>4.94358619401919</v>
       </c>
       <c r="AQ6" t="n">
-        <v>4.994729303842291</v>
+        <v>3.372416438517869</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.59773954045998</v>
+        <v>7.080264861511262</v>
       </c>
       <c r="AS6" t="n">
-        <v>3.548514967580925</v>
+        <v>3.093039363563448</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.552893989184144</v>
+        <v>0.612203232602094</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>2.742895316482018</v>
       </c>
       <c r="AV6" t="n">
-        <v>1.836479383266519</v>
+        <v>0.1205436303184243</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.07535495794497</v>
+        <v>2.275938211047695</v>
       </c>
       <c r="AX6" t="n">
-        <v>6.145120522085241</v>
+        <v>2.168305003524908</v>
       </c>
     </row>
     <row r="7">
@@ -1453,148 +1453,148 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4.354857800759458</v>
+        <v>12.5130744507985</v>
       </c>
       <c r="D7" t="n">
-        <v>8.48992917783465</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>73.49920206270403</v>
+        <v>27.2421617074085</v>
       </c>
       <c r="F7" t="n">
-        <v>13.49698344322925</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>8.311572543187134</v>
+        <v>7.814552988634136</v>
       </c>
       <c r="H7" t="n">
-        <v>8.293587793858679</v>
+        <v>35.44044557177271</v>
       </c>
       <c r="I7" t="n">
-        <v>15.63791149313955</v>
+        <v>27.46097019740104</v>
       </c>
       <c r="J7" t="n">
-        <v>23.87213985005639</v>
+        <v>10.30972783112986</v>
       </c>
       <c r="K7" t="n">
-        <v>51.18075743265064</v>
+        <v>38.68159523151344</v>
       </c>
       <c r="L7" t="n">
-        <v>30.68386116015449</v>
+        <v>64.21362533705808</v>
       </c>
       <c r="M7" t="n">
-        <v>48.69601144492412</v>
+        <v>11.7732898502306</v>
       </c>
       <c r="N7" t="n">
-        <v>100.0244093699216</v>
+        <v>138.8249751938934</v>
       </c>
       <c r="O7" t="n">
-        <v>121.5667162984885</v>
+        <v>15.3050362737553</v>
       </c>
       <c r="P7" t="n">
-        <v>8.641192320421283</v>
+        <v>43.97624590069118</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.70694191099573</v>
+        <v>27.25963067427479</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>9.506136097798461</v>
       </c>
       <c r="S7" t="n">
-        <v>23.25252631450272</v>
+        <v>41.45009808855136</v>
       </c>
       <c r="T7" t="n">
-        <v>0.3874787787248124</v>
+        <v>39.93319909504924</v>
       </c>
       <c r="U7" t="n">
-        <v>30.3313503257558</v>
+        <v>22.88056852638079</v>
       </c>
       <c r="V7" t="n">
-        <v>51.66276549048577</v>
+        <v>25.33614918234485</v>
       </c>
       <c r="W7" t="n">
-        <v>137.9878312892229</v>
+        <v>7.372270426463638</v>
       </c>
       <c r="X7" t="n">
-        <v>45.42917532543084</v>
+        <v>26.94239605950387</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.81128583944699</v>
+        <v>15.33773957705033</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.048622981983289</v>
+        <v>14.55586273865507</v>
       </c>
       <c r="AA7" t="n">
-        <v>9.200541931553456</v>
+        <v>15.09301522645845</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.840603391714244</v>
+        <v>16.83117389654503</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.55918062783198</v>
+        <v>6.690484911280496</v>
       </c>
       <c r="AD7" t="n">
-        <v>18.04408164706394</v>
+        <v>17.71970153393378</v>
       </c>
       <c r="AE7" t="n">
-        <v>3.662940964077174</v>
+        <v>5.4415641557895</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.844385529324887</v>
+        <v>5.342238761968789</v>
       </c>
       <c r="AG7" t="n">
-        <v>15.61971042280572</v>
+        <v>11.49274889081961</v>
       </c>
       <c r="AH7" t="n">
-        <v>4.1586280707799</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>18.69202963541419</v>
+        <v>21.66936143899846</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>12.72259855104453</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>11.96474164298625</v>
       </c>
       <c r="AL7" t="n">
-        <v>11.59369345392171</v>
+        <v>27.30285200924393</v>
       </c>
       <c r="AM7" t="n">
-        <v>3.063822554247686</v>
+        <v>5.648739060501685</v>
       </c>
       <c r="AN7" t="n">
-        <v>6.678005248521433</v>
+        <v>24.77722774763546</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>7.909226918272864</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.4978325861651454</v>
+        <v>7.205767035328925</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>4.948867615617922</v>
       </c>
       <c r="AR7" t="n">
-        <v>13.82177761610739</v>
+        <v>13.96196745746429</v>
       </c>
       <c r="AS7" t="n">
-        <v>16.83289824766229</v>
+        <v>9.486105762480889</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.182472431122761</v>
+        <v>0.09557600451880033</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.867641279910188</v>
+        <v>13.35609663955451</v>
       </c>
       <c r="AV7" t="n">
-        <v>9.557515404341871</v>
+        <v>16.0131163576737</v>
       </c>
       <c r="AW7" t="n">
-        <v>11.80918479922016</v>
+        <v>5.506861357262544</v>
       </c>
       <c r="AX7" t="n">
-        <v>4.705499202318743</v>
+        <v>15.56751547758828</v>
       </c>
     </row>
     <row r="8">
@@ -1605,148 +1605,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>23.07548461827331</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>25.92998804954445</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>18.93504822150673</v>
+        <v>19.21840872447532</v>
       </c>
       <c r="F8" t="n">
-        <v>24.37055056877458</v>
+        <v>14.59166911934084</v>
       </c>
       <c r="G8" t="n">
-        <v>27.12258386859421</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>14.20967044467995</v>
+        <v>39.990505741226</v>
       </c>
       <c r="I8" t="n">
-        <v>146.4251470984505</v>
+        <v>89.46081843271129</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.3693639423913737</v>
       </c>
       <c r="K8" t="n">
-        <v>92.73416584215886</v>
+        <v>177.716774630917</v>
       </c>
       <c r="L8" t="n">
-        <v>31.22253329598875</v>
+        <v>31.63407749985934</v>
       </c>
       <c r="M8" t="n">
-        <v>56.12248113317574</v>
+        <v>42.23464956569597</v>
       </c>
       <c r="N8" t="n">
-        <v>71.17630328805562</v>
+        <v>79.90801469916642</v>
       </c>
       <c r="O8" t="n">
-        <v>47.35742956478988</v>
+        <v>40.95060598884177</v>
       </c>
       <c r="P8" t="n">
-        <v>35.13857002624442</v>
+        <v>35.55016233589255</v>
       </c>
       <c r="Q8" t="n">
-        <v>38.65788418329758</v>
+        <v>14.1745485010061</v>
       </c>
       <c r="R8" t="n">
-        <v>22.6962199317084</v>
+        <v>63.98212167259513</v>
       </c>
       <c r="S8" t="n">
-        <v>47.89268504738731</v>
+        <v>49.75827028565687</v>
       </c>
       <c r="T8" t="n">
-        <v>137.6780932393945</v>
+        <v>74.97827709530556</v>
       </c>
       <c r="U8" t="n">
-        <v>59.90455687610034</v>
+        <v>40.53946025195818</v>
       </c>
       <c r="V8" t="n">
-        <v>55.43464183354314</v>
+        <v>89.1509306067443</v>
       </c>
       <c r="W8" t="n">
-        <v>63.37748172623777</v>
+        <v>100.1980515425404</v>
       </c>
       <c r="X8" t="n">
-        <v>38.42608944487704</v>
+        <v>154.8259795049699</v>
       </c>
       <c r="Y8" t="n">
-        <v>77.44059692072149</v>
+        <v>76.76607548902709</v>
       </c>
       <c r="Z8" t="n">
-        <v>76.20041040071007</v>
+        <v>174.9397958525087</v>
       </c>
       <c r="AA8" t="n">
-        <v>111.5467946990094</v>
+        <v>83.13310867619359</v>
       </c>
       <c r="AB8" t="n">
-        <v>121.8955897218262</v>
+        <v>67.9245880334752</v>
       </c>
       <c r="AC8" t="n">
-        <v>144.748415996455</v>
+        <v>108.4965978200232</v>
       </c>
       <c r="AD8" t="n">
-        <v>79.27830293696751</v>
+        <v>157.6726396446939</v>
       </c>
       <c r="AE8" t="n">
-        <v>150.8125812021685</v>
+        <v>119.774907653361</v>
       </c>
       <c r="AF8" t="n">
-        <v>98.68974377100584</v>
+        <v>100.2349386504934</v>
       </c>
       <c r="AG8" t="n">
-        <v>134.2304738157254</v>
+        <v>151.7061923462845</v>
       </c>
       <c r="AH8" t="n">
-        <v>150.8768890516927</v>
+        <v>72.35469940628386</v>
       </c>
       <c r="AI8" t="n">
-        <v>44.75776015230918</v>
+        <v>66.91784631831703</v>
       </c>
       <c r="AJ8" t="n">
-        <v>31.80509152374817</v>
+        <v>70.33812898378497</v>
       </c>
       <c r="AK8" t="n">
-        <v>62.77104523794864</v>
+        <v>51.38786205469364</v>
       </c>
       <c r="AL8" t="n">
-        <v>35.36651152466332</v>
+        <v>27.49680472925789</v>
       </c>
       <c r="AM8" t="n">
-        <v>102.9251898025035</v>
+        <v>41.58848938158969</v>
       </c>
       <c r="AN8" t="n">
-        <v>57.67516106294573</v>
+        <v>46.40920528166619</v>
       </c>
       <c r="AO8" t="n">
-        <v>19.88030976332649</v>
+        <v>38.08229260579037</v>
       </c>
       <c r="AP8" t="n">
-        <v>38.48538900797156</v>
+        <v>35.99518409997734</v>
       </c>
       <c r="AQ8" t="n">
-        <v>35.03770177738865</v>
+        <v>28.70288958698147</v>
       </c>
       <c r="AR8" t="n">
-        <v>12.46390571144372</v>
+        <v>25.88653389505924</v>
       </c>
       <c r="AS8" t="n">
-        <v>13.37762922348538</v>
+        <v>31.27500768809769</v>
       </c>
       <c r="AT8" t="n">
-        <v>23.8521938279295</v>
+        <v>26.93062386015079</v>
       </c>
       <c r="AU8" t="n">
-        <v>25.62190282014443</v>
+        <v>15.77820912220877</v>
       </c>
       <c r="AV8" t="n">
-        <v>37.77879136023471</v>
+        <v>43.21489576483488</v>
       </c>
       <c r="AW8" t="n">
-        <v>61.44916144113206</v>
+        <v>21.96123207961278</v>
       </c>
       <c r="AX8" t="n">
-        <v>12.5650478161337</v>
+        <v>21.3170192609836</v>
       </c>
     </row>
     <row r="9">
@@ -1757,148 +1757,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>4.218498004158705</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1.120609919182562</v>
       </c>
       <c r="E9" t="n">
-        <v>1.99459059748465</v>
+        <v>1.657653457213513</v>
       </c>
       <c r="F9" t="n">
-        <v>3.419550700765146</v>
+        <v>4.091498466596597</v>
       </c>
       <c r="G9" t="n">
-        <v>4.425426362226095</v>
+        <v>0.7128763322377131</v>
       </c>
       <c r="H9" t="n">
-        <v>2.228877835630943</v>
+        <v>2.848975028589659</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6723770623179837</v>
+        <v>6.634797771181084</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>9.242251984450563</v>
       </c>
       <c r="K9" t="n">
-        <v>6.654693795320745</v>
+        <v>1.882361893459936</v>
       </c>
       <c r="L9" t="n">
-        <v>5.297799422123233</v>
+        <v>2.745609809067785</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4822862116496517</v>
+        <v>3.982100772755451</v>
       </c>
       <c r="N9" t="n">
-        <v>4.555090075888151</v>
+        <v>3.690876855941205</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7982693682722973</v>
+        <v>4.869472010657201</v>
       </c>
       <c r="P9" t="n">
-        <v>4.332926835606468</v>
+        <v>8.891000204323525</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.531158731174624</v>
+        <v>12.94241785679933</v>
       </c>
       <c r="R9" t="n">
-        <v>3.259996312920304</v>
+        <v>1.252516773062912</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>2.453475250960284</v>
       </c>
       <c r="T9" t="n">
-        <v>1.605914106806453</v>
+        <v>4.408803541614257</v>
       </c>
       <c r="U9" t="n">
-        <v>3.310673617932069</v>
+        <v>3.369528857511682</v>
       </c>
       <c r="V9" t="n">
-        <v>16.48729522381949</v>
+        <v>4.998960059485974</v>
       </c>
       <c r="W9" t="n">
-        <v>0.379503642120126</v>
+        <v>5.283028717623663</v>
       </c>
       <c r="X9" t="n">
-        <v>0.6661133709136504</v>
+        <v>3.380399094067129</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.828226994485799</v>
+        <v>4.940290026154013</v>
       </c>
       <c r="Z9" t="n">
-        <v>9.726490290394469</v>
+        <v>5.758378887032793</v>
       </c>
       <c r="AA9" t="n">
-        <v>4.522507018694648</v>
+        <v>4.928080613861193</v>
       </c>
       <c r="AB9" t="n">
-        <v>5.076740138054455</v>
+        <v>2.077463246965728</v>
       </c>
       <c r="AC9" t="n">
-        <v>4.109798111023619</v>
+        <v>2.352382055882995</v>
       </c>
       <c r="AD9" t="n">
-        <v>9.086934123502894</v>
+        <v>4.440666889418264</v>
       </c>
       <c r="AE9" t="n">
-        <v>5.649373967141792</v>
+        <v>3.328566759091077</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.726577830379815</v>
+        <v>6.916026921896886</v>
       </c>
       <c r="AG9" t="n">
-        <v>8.47031656675772</v>
+        <v>3.935497772907478</v>
       </c>
       <c r="AH9" t="n">
-        <v>3.427822271486025</v>
+        <v>6.934556139158986</v>
       </c>
       <c r="AI9" t="n">
-        <v>1.128906903906185</v>
+        <v>5.403703661437752</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.6086797831615386</v>
+        <v>5.639560980481305</v>
       </c>
       <c r="AK9" t="n">
-        <v>5.54381900541722</v>
+        <v>2.223904952301818</v>
       </c>
       <c r="AL9" t="n">
-        <v>4.960981836581204</v>
+        <v>5.47372757651415</v>
       </c>
       <c r="AM9" t="n">
-        <v>4.04277796616429</v>
+        <v>2.828171919131975</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.76883013889112</v>
+        <v>3.649239288664595</v>
       </c>
       <c r="AO9" t="n">
-        <v>4.430460158291916</v>
+        <v>3.080273446523744</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.183703256855846</v>
+        <v>5.131272770806376</v>
       </c>
       <c r="AQ9" t="n">
-        <v>5.107286117546737</v>
+        <v>9.999491055742663</v>
       </c>
       <c r="AR9" t="n">
-        <v>3.138958231605391</v>
+        <v>3.926401403854985</v>
       </c>
       <c r="AS9" t="n">
-        <v>3.780197440239118</v>
+        <v>3.07834097785223</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.694462320464906</v>
+        <v>1.77298786697325</v>
       </c>
       <c r="AU9" t="n">
-        <v>4.05299618450776</v>
+        <v>3.091080120943349</v>
       </c>
       <c r="AV9" t="n">
-        <v>3.773888930618044</v>
+        <v>7.09147134682278</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.631921677268204</v>
+        <v>4.589095378443729</v>
       </c>
       <c r="AX9" t="n">
-        <v>4.552501911443626</v>
+        <v>3.537929230342685</v>
       </c>
     </row>
     <row r="10">
@@ -1909,148 +1909,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>8.603767117727223</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>6.862995637451756</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>45.20031989855617</v>
+        <v>3.102778679024924</v>
       </c>
       <c r="F10" t="n">
-        <v>23.43501727311387</v>
+        <v>23.00265729282182</v>
       </c>
       <c r="G10" t="n">
-        <v>9.209806614107183</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>26.30895300334319</v>
+        <v>19.21118542084388</v>
       </c>
       <c r="I10" t="n">
-        <v>18.92623374839451</v>
+        <v>43.73471508778692</v>
       </c>
       <c r="J10" t="n">
-        <v>31.51047609067537</v>
+        <v>16.66714122296444</v>
       </c>
       <c r="K10" t="n">
-        <v>106.4912973180224</v>
+        <v>29.82627537168386</v>
       </c>
       <c r="L10" t="n">
-        <v>25.96249770606894</v>
+        <v>28.97487359419421</v>
       </c>
       <c r="M10" t="n">
-        <v>20.21104265749454</v>
+        <v>43.48890471933843</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>63.84898183235823</v>
       </c>
       <c r="O10" t="n">
-        <v>132.5264386313654</v>
+        <v>23.83826043216919</v>
       </c>
       <c r="P10" t="n">
-        <v>6.662224080783485</v>
+        <v>44.22401163522032</v>
       </c>
       <c r="Q10" t="n">
-        <v>87.4748800892712</v>
+        <v>66.47899829558924</v>
       </c>
       <c r="R10" t="n">
-        <v>76.98928387082715</v>
+        <v>46.52043167889228</v>
       </c>
       <c r="S10" t="n">
-        <v>55.37907573220735</v>
+        <v>41.94173112621934</v>
       </c>
       <c r="T10" t="n">
-        <v>41.5199514398045</v>
+        <v>174.9821384424256</v>
       </c>
       <c r="U10" t="n">
-        <v>45.33001284192971</v>
+        <v>113.4626288546003</v>
       </c>
       <c r="V10" t="n">
-        <v>6.830552094240907</v>
+        <v>111.2429573566767</v>
       </c>
       <c r="W10" t="n">
-        <v>43.64852381121253</v>
+        <v>97.96840570625571</v>
       </c>
       <c r="X10" t="n">
-        <v>39.14857757971363</v>
+        <v>63.57232483153783</v>
       </c>
       <c r="Y10" t="n">
-        <v>59.95020844927346</v>
+        <v>137.8554714543621</v>
       </c>
       <c r="Z10" t="n">
-        <v>60.0709618091728</v>
+        <v>64.39286288584719</v>
       </c>
       <c r="AA10" t="n">
-        <v>73.66003273522344</v>
+        <v>48.57773784128187</v>
       </c>
       <c r="AB10" t="n">
-        <v>75.85803994947392</v>
+        <v>96.58459279397442</v>
       </c>
       <c r="AC10" t="n">
-        <v>30.84223477352041</v>
+        <v>79.35824518036912</v>
       </c>
       <c r="AD10" t="n">
-        <v>72.92605482526062</v>
+        <v>92.71709565946071</v>
       </c>
       <c r="AE10" t="n">
-        <v>11.5970901631498</v>
+        <v>92.97977229240753</v>
       </c>
       <c r="AF10" t="n">
-        <v>35.33619724849627</v>
+        <v>54.73345859151561</v>
       </c>
       <c r="AG10" t="n">
-        <v>67.3262323484529</v>
+        <v>60.24316144633219</v>
       </c>
       <c r="AH10" t="n">
-        <v>52.7045996306715</v>
+        <v>45.64287990121353</v>
       </c>
       <c r="AI10" t="n">
-        <v>23.26724002991306</v>
+        <v>44.53333276488714</v>
       </c>
       <c r="AJ10" t="n">
-        <v>41.28110700389148</v>
+        <v>28.03774184222761</v>
       </c>
       <c r="AK10" t="n">
-        <v>66.21008654178075</v>
+        <v>33.36173633452947</v>
       </c>
       <c r="AL10" t="n">
-        <v>24.06011289375787</v>
+        <v>45.11257255161124</v>
       </c>
       <c r="AM10" t="n">
-        <v>34.73584261568855</v>
+        <v>27.88009359076906</v>
       </c>
       <c r="AN10" t="n">
-        <v>20.98561043552365</v>
+        <v>30.17011020724861</v>
       </c>
       <c r="AO10" t="n">
-        <v>28.2605619535546</v>
+        <v>25.53522796135288</v>
       </c>
       <c r="AP10" t="n">
-        <v>9.185763870728238</v>
+        <v>31.6124037793576</v>
       </c>
       <c r="AQ10" t="n">
-        <v>15.51418768511281</v>
+        <v>21.00897160278228</v>
       </c>
       <c r="AR10" t="n">
-        <v>6.018475419971506</v>
+        <v>26.53177365674492</v>
       </c>
       <c r="AS10" t="n">
-        <v>22.58974380254658</v>
+        <v>10.47470718266769</v>
       </c>
       <c r="AT10" t="n">
-        <v>26.4494919866497</v>
+        <v>32.23421262506439</v>
       </c>
       <c r="AU10" t="n">
-        <v>5.413219299902862</v>
+        <v>16.14797008560163</v>
       </c>
       <c r="AV10" t="n">
-        <v>20.64913303776663</v>
+        <v>32.82412652977405</v>
       </c>
       <c r="AW10" t="n">
-        <v>10.07741957804106</v>
+        <v>3.92014753739491</v>
       </c>
       <c r="AX10" t="n">
-        <v>8.646006378698008</v>
+        <v>9.172154816421708</v>
       </c>
     </row>
     <row r="11">
@@ -2061,148 +2061,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>26.00030918853314</v>
+        <v>24.98505666623611</v>
       </c>
       <c r="D11" t="n">
-        <v>26.94805464127936</v>
+        <v>7.90868245056935</v>
       </c>
       <c r="E11" t="n">
-        <v>0.08040668959029415</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>42.5969448651474</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.565941985026149</v>
+        <v>34.99513847283182</v>
       </c>
       <c r="H11" t="n">
-        <v>9.975488878970463</v>
+        <v>38.14485900866752</v>
       </c>
       <c r="I11" t="n">
-        <v>14.98270333151837</v>
+        <v>20.10743894471739</v>
       </c>
       <c r="J11" t="n">
-        <v>70.83285770207559</v>
+        <v>17.78893195886805</v>
       </c>
       <c r="K11" t="n">
-        <v>55.45132026702935</v>
+        <v>30.43202842358334</v>
       </c>
       <c r="L11" t="n">
-        <v>10.21111743341866</v>
+        <v>36.1139547240836</v>
       </c>
       <c r="M11" t="n">
-        <v>9.152580162593289</v>
+        <v>22.42277042241768</v>
       </c>
       <c r="N11" t="n">
-        <v>27.38178843228788</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>21.34391574774806</v>
+        <v>83.60315015277841</v>
       </c>
       <c r="P11" t="n">
-        <v>61.10933233287216</v>
+        <v>20.10383773726418</v>
       </c>
       <c r="Q11" t="n">
-        <v>7.9592972810078</v>
+        <v>10.22658710378386</v>
       </c>
       <c r="R11" t="n">
-        <v>79.34577872691125</v>
+        <v>157.7995237751917</v>
       </c>
       <c r="S11" t="n">
-        <v>114.6220679279172</v>
+        <v>80.99614663290738</v>
       </c>
       <c r="T11" t="n">
-        <v>19.53057630003646</v>
+        <v>14.14458912716408</v>
       </c>
       <c r="U11" t="n">
-        <v>54.00580539288749</v>
+        <v>48.25083611628753</v>
       </c>
       <c r="V11" t="n">
-        <v>187.1754202820575</v>
+        <v>13.43874561997171</v>
       </c>
       <c r="W11" t="n">
-        <v>29.26389951444969</v>
+        <v>45.87321675414255</v>
       </c>
       <c r="X11" t="n">
-        <v>49.31454564399178</v>
+        <v>103.285538069432</v>
       </c>
       <c r="Y11" t="n">
-        <v>103.6390382527686</v>
+        <v>41.60129013288716</v>
       </c>
       <c r="Z11" t="n">
-        <v>90.62527205299926</v>
+        <v>134.2368170461855</v>
       </c>
       <c r="AA11" t="n">
-        <v>26.34360727276376</v>
+        <v>30.20456902409857</v>
       </c>
       <c r="AB11" t="n">
-        <v>81.28519734076022</v>
+        <v>56.38461556847934</v>
       </c>
       <c r="AC11" t="n">
-        <v>48.92435658016751</v>
+        <v>19.40005555914451</v>
       </c>
       <c r="AD11" t="n">
-        <v>92.60427883826168</v>
+        <v>43.13926845959404</v>
       </c>
       <c r="AE11" t="n">
-        <v>29.35558694775627</v>
+        <v>28.47853877580584</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.599554586107896</v>
+        <v>58.84537281665594</v>
       </c>
       <c r="AG11" t="n">
-        <v>28.44618642922108</v>
+        <v>26.79098443057344</v>
       </c>
       <c r="AH11" t="n">
-        <v>40.59979035848973</v>
+        <v>31.20743653442966</v>
       </c>
       <c r="AI11" t="n">
-        <v>177.4369276463804</v>
+        <v>47.54278188024421</v>
       </c>
       <c r="AJ11" t="n">
-        <v>39.06750667564405</v>
+        <v>27.57788381710785</v>
       </c>
       <c r="AK11" t="n">
-        <v>12.61349721297542</v>
+        <v>2.846705135393946</v>
       </c>
       <c r="AL11" t="n">
-        <v>24.65756950003381</v>
+        <v>14.34821264980956</v>
       </c>
       <c r="AM11" t="n">
-        <v>37.76986988887044</v>
+        <v>17.50341012911167</v>
       </c>
       <c r="AN11" t="n">
-        <v>1.804274770747649</v>
+        <v>3.509576590134663</v>
       </c>
       <c r="AO11" t="n">
-        <v>51.65839554885108</v>
+        <v>33.25395879968293</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.129141433388829</v>
+        <v>15.95121546209707</v>
       </c>
       <c r="AQ11" t="n">
-        <v>24.335646030751</v>
+        <v>30.78485675753926</v>
       </c>
       <c r="AR11" t="n">
-        <v>5.611750933183813</v>
+        <v>10.85502584964746</v>
       </c>
       <c r="AS11" t="n">
-        <v>9.587310525829263</v>
+        <v>6.217623415775526</v>
       </c>
       <c r="AT11" t="n">
-        <v>30.44474751245939</v>
+        <v>48.52674822859939</v>
       </c>
       <c r="AU11" t="n">
-        <v>42.72495154163231</v>
+        <v>23.09104039116365</v>
       </c>
       <c r="AV11" t="n">
-        <v>26.90038208744252</v>
+        <v>17.85176346663668</v>
       </c>
       <c r="AW11" t="n">
-        <v>0</v>
+        <v>19.73143094525637</v>
       </c>
       <c r="AX11" t="n">
-        <v>32.34677293323975</v>
+        <v>28.20153382661371</v>
       </c>
     </row>
     <row r="12">
@@ -2213,148 +2213,148 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>2.619321551390215</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2121845581302231</v>
+        <v>0.2639833809195029</v>
       </c>
       <c r="E12" t="n">
-        <v>16.31776038332544</v>
+        <v>9.545419285962913</v>
       </c>
       <c r="F12" t="n">
-        <v>11.70027388017265</v>
+        <v>28.51173654472757</v>
       </c>
       <c r="G12" t="n">
-        <v>14.49927355614771</v>
+        <v>4.80542054016272</v>
       </c>
       <c r="H12" t="n">
-        <v>13.66744331774048</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>13.81309862971969</v>
+        <v>11.40777679710385</v>
       </c>
       <c r="J12" t="n">
-        <v>42.02739871966475</v>
+        <v>14.54378971496501</v>
       </c>
       <c r="K12" t="n">
-        <v>20.48122207919536</v>
+        <v>31.76618160666779</v>
       </c>
       <c r="L12" t="n">
-        <v>4.273109817786207</v>
+        <v>22.1898349789584</v>
       </c>
       <c r="M12" t="n">
-        <v>81.88424041773079</v>
+        <v>115.9119197050762</v>
       </c>
       <c r="N12" t="n">
-        <v>29.28494390115486</v>
+        <v>19.50002747649315</v>
       </c>
       <c r="O12" t="n">
-        <v>15.05568472057204</v>
+        <v>6.855018750144668</v>
       </c>
       <c r="P12" t="n">
-        <v>24.51738711680904</v>
+        <v>35.55144247411219</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.50157228888575</v>
+        <v>19.17448023925099</v>
       </c>
       <c r="R12" t="n">
-        <v>16.41547392823453</v>
+        <v>36.41227307219402</v>
       </c>
       <c r="S12" t="n">
-        <v>60.73414245513745</v>
+        <v>23.88272287711983</v>
       </c>
       <c r="T12" t="n">
-        <v>39.43033242469556</v>
+        <v>16.10502414747305</v>
       </c>
       <c r="U12" t="n">
-        <v>29.87433173023989</v>
+        <v>13.87596774423984</v>
       </c>
       <c r="V12" t="n">
-        <v>25.19824948486351</v>
+        <v>18.52562814288335</v>
       </c>
       <c r="W12" t="n">
-        <v>27.93211639126093</v>
+        <v>19.17383978372693</v>
       </c>
       <c r="X12" t="n">
-        <v>18.03062557840836</v>
+        <v>10.81460282506031</v>
       </c>
       <c r="Y12" t="n">
-        <v>36.41947953677172</v>
+        <v>23.25437614641889</v>
       </c>
       <c r="Z12" t="n">
-        <v>11.42107724463479</v>
+        <v>21.70734592232968</v>
       </c>
       <c r="AA12" t="n">
-        <v>19.78641064129543</v>
+        <v>18.69564049304541</v>
       </c>
       <c r="AB12" t="n">
-        <v>6.737320954137155</v>
+        <v>18.93211800258275</v>
       </c>
       <c r="AC12" t="n">
-        <v>11.35436567733881</v>
+        <v>24.39701413819075</v>
       </c>
       <c r="AD12" t="n">
-        <v>9.339902408968335</v>
+        <v>17.33419670072956</v>
       </c>
       <c r="AE12" t="n">
-        <v>29.22703304555505</v>
+        <v>14.07633184836881</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.585452921056457</v>
+        <v>8.12262025141913</v>
       </c>
       <c r="AG12" t="n">
-        <v>10.6160792558506</v>
+        <v>11.12003230647435</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>16.25298877280884</v>
       </c>
       <c r="AI12" t="n">
-        <v>8.151324700242549</v>
+        <v>9.630791927384429</v>
       </c>
       <c r="AJ12" t="n">
-        <v>3.259012731273404</v>
+        <v>3.118263629272091</v>
       </c>
       <c r="AK12" t="n">
-        <v>9.280827609040681</v>
+        <v>10.94645877281547</v>
       </c>
       <c r="AL12" t="n">
-        <v>3.848247973916658</v>
+        <v>3.900291948746477</v>
       </c>
       <c r="AM12" t="n">
-        <v>6.685342717504194</v>
+        <v>9.26342449579948</v>
       </c>
       <c r="AN12" t="n">
-        <v>7.039853972160581</v>
+        <v>3.574528954921536</v>
       </c>
       <c r="AO12" t="n">
-        <v>4.388604167107978</v>
+        <v>5.510088503993151</v>
       </c>
       <c r="AP12" t="n">
-        <v>5.622115895453043</v>
+        <v>5.823731065606273</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.7622483723167541</v>
+        <v>5.438667054452099</v>
       </c>
       <c r="AR12" t="n">
-        <v>4.168058485431701</v>
+        <v>2.485111927001737</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.35745642379996</v>
+        <v>0.8971515686027655</v>
       </c>
       <c r="AT12" t="n">
-        <v>4.283402234501891</v>
+        <v>2.35466679915079</v>
       </c>
       <c r="AU12" t="n">
-        <v>5.516291083339161</v>
+        <v>1.246088113082685</v>
       </c>
       <c r="AV12" t="n">
-        <v>4.544577960797723</v>
+        <v>4.068056770760812</v>
       </c>
       <c r="AW12" t="n">
-        <v>2.442442558209827</v>
+        <v>3.960529759627637</v>
       </c>
       <c r="AX12" t="n">
-        <v>2.18354762115605</v>
+        <v>3.731655378514674</v>
       </c>
     </row>
     <row r="13">
@@ -2365,148 +2365,148 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>34.58497601126497</v>
+        <v>1.5681528665199</v>
       </c>
       <c r="D13" t="n">
-        <v>7.006755020077964</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>17.53649981557977</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2.203361731770826</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>13.58225110912119</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>33.53914743721001</v>
+        <v>29.08488670557412</v>
       </c>
       <c r="I13" t="n">
-        <v>83.17599465340551</v>
+        <v>15.85651161407317</v>
       </c>
       <c r="J13" t="n">
-        <v>65.60319842711182</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>28.1438606380262</v>
+        <v>56.94825821117067</v>
       </c>
       <c r="L13" t="n">
-        <v>90.1091061955662</v>
+        <v>80.40813205550151</v>
       </c>
       <c r="M13" t="n">
-        <v>45.25014705574336</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>4.272833357519037</v>
+        <v>23.51133486656317</v>
       </c>
       <c r="O13" t="n">
-        <v>95.29416786091878</v>
+        <v>78.21851555832245</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>16.87544282501003</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.660844530575221</v>
+        <v>25.87544079276588</v>
       </c>
       <c r="R13" t="n">
-        <v>26.48376635334874</v>
+        <v>59.86961677022331</v>
       </c>
       <c r="S13" t="n">
-        <v>28.36278599171906</v>
+        <v>22.29228282036295</v>
       </c>
       <c r="T13" t="n">
-        <v>18.18169251394902</v>
+        <v>32.80961862772651</v>
       </c>
       <c r="U13" t="n">
-        <v>0.4146110259281863</v>
+        <v>21.12702768736821</v>
       </c>
       <c r="V13" t="n">
-        <v>31.0856402621452</v>
+        <v>17.56154378424942</v>
       </c>
       <c r="W13" t="n">
-        <v>18.03761008896037</v>
+        <v>6.102338174956476</v>
       </c>
       <c r="X13" t="n">
-        <v>3.644311311998228</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.47056661915592</v>
+        <v>29.37325950066014</v>
       </c>
       <c r="Z13" t="n">
-        <v>17.91676377221177</v>
+        <v>2.483284129205879</v>
       </c>
       <c r="AA13" t="n">
-        <v>12.10194936399764</v>
+        <v>4.521911485592288</v>
       </c>
       <c r="AB13" t="n">
-        <v>36.77503897254962</v>
+        <v>3.969366446610591</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>11.35663061667714</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>15.30047757148088</v>
       </c>
       <c r="AE13" t="n">
-        <v>3.664394380248958</v>
+        <v>30.31119409588759</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.49086247509096</v>
+        <v>7.804511419515407</v>
       </c>
       <c r="AG13" t="n">
-        <v>10.574894618504</v>
+        <v>12.88112779458168</v>
       </c>
       <c r="AH13" t="n">
-        <v>43.26670037193022</v>
+        <v>14.22263525941402</v>
       </c>
       <c r="AI13" t="n">
-        <v>6.509971566752021</v>
+        <v>3.457995443017396</v>
       </c>
       <c r="AJ13" t="n">
-        <v>6.490379278500519</v>
+        <v>0.98697169036275</v>
       </c>
       <c r="AK13" t="n">
-        <v>7.072504474082674</v>
+        <v>27.08725054527898</v>
       </c>
       <c r="AL13" t="n">
-        <v>14.87440309637552</v>
+        <v>7.352965571651121</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1.064808276438331</v>
       </c>
       <c r="AN13" t="n">
-        <v>20.60580468107477</v>
+        <v>1.674856764024815</v>
       </c>
       <c r="AO13" t="n">
-        <v>6.924258622984002</v>
+        <v>1.815301753920728</v>
       </c>
       <c r="AP13" t="n">
-        <v>3.102241418121092</v>
+        <v>2.616873319926815</v>
       </c>
       <c r="AQ13" t="n">
-        <v>10.4387431381333</v>
+        <v>3.637785453259847</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>20.70208262804884</v>
       </c>
       <c r="AS13" t="n">
-        <v>11.1049912809493</v>
+        <v>10.20741049253668</v>
       </c>
       <c r="AT13" t="n">
-        <v>13.46925110684965</v>
+        <v>4.896808259271921</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.3626362038052559</v>
+        <v>23.45748035348037</v>
       </c>
       <c r="AV13" t="n">
-        <v>1.370743230054948</v>
+        <v>0.3357136932580073</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.5620774728665487</v>
+        <v>1.861076033381913</v>
       </c>
       <c r="AX13" t="n">
-        <v>5.184221243706269</v>
+        <v>2.114708732319609</v>
       </c>
     </row>
     <row r="14">
@@ -2517,148 +2517,148 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>8.587157590434213</v>
+        <v>14.39542266930213</v>
       </c>
       <c r="D14" t="n">
-        <v>6.133807034671204</v>
+        <v>30.63137955277422</v>
       </c>
       <c r="E14" t="n">
-        <v>41.45730062918027</v>
+        <v>34.59180858829514</v>
       </c>
       <c r="F14" t="n">
-        <v>16.07435559099523</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>28.52885681346844</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>22.97788429707664</v>
+        <v>39.2001900807857</v>
       </c>
       <c r="I14" t="n">
-        <v>115.3041487652999</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>41.13986490640082</v>
+        <v>320.29033433414</v>
       </c>
       <c r="K14" t="n">
-        <v>127.7477420354042</v>
+        <v>47.51946331159292</v>
       </c>
       <c r="L14" t="n">
-        <v>57.48836969281126</v>
+        <v>118.0692416336696</v>
       </c>
       <c r="M14" t="n">
-        <v>13.41374271367259</v>
+        <v>35.1293272261814</v>
       </c>
       <c r="N14" t="n">
-        <v>151.1202003754557</v>
+        <v>98.60997463072519</v>
       </c>
       <c r="O14" t="n">
-        <v>77.20244860628856</v>
+        <v>55.25533026417885</v>
       </c>
       <c r="P14" t="n">
-        <v>29.12826819769942</v>
+        <v>35.31965799355663</v>
       </c>
       <c r="Q14" t="n">
-        <v>52.02549460818992</v>
+        <v>37.70615225948931</v>
       </c>
       <c r="R14" t="n">
-        <v>42.07386862987097</v>
+        <v>51.41358735969197</v>
       </c>
       <c r="S14" t="n">
-        <v>81.60147398927623</v>
+        <v>79.62592879854046</v>
       </c>
       <c r="T14" t="n">
-        <v>41.13426347479257</v>
+        <v>32.31668877277943</v>
       </c>
       <c r="U14" t="n">
-        <v>87.58228261815808</v>
+        <v>97.51865044701935</v>
       </c>
       <c r="V14" t="n">
-        <v>44.26983428296329</v>
+        <v>69.43603513823162</v>
       </c>
       <c r="W14" t="n">
-        <v>81.10403903675028</v>
+        <v>56.28729927836125</v>
       </c>
       <c r="X14" t="n">
-        <v>61.03043058581029</v>
+        <v>53.72522013189366</v>
       </c>
       <c r="Y14" t="n">
-        <v>60.38212044697475</v>
+        <v>73.29071820634914</v>
       </c>
       <c r="Z14" t="n">
-        <v>87.24858262528116</v>
+        <v>73.10866998773196</v>
       </c>
       <c r="AA14" t="n">
-        <v>108.2603022936359</v>
+        <v>69.12336938993674</v>
       </c>
       <c r="AB14" t="n">
-        <v>70.57385927141378</v>
+        <v>134.5144740724549</v>
       </c>
       <c r="AC14" t="n">
-        <v>81.20706802812302</v>
+        <v>123.2829784533403</v>
       </c>
       <c r="AD14" t="n">
-        <v>108.7727961106639</v>
+        <v>158.1015929965998</v>
       </c>
       <c r="AE14" t="n">
-        <v>143.417779165787</v>
+        <v>78.97081320000785</v>
       </c>
       <c r="AF14" t="n">
-        <v>141.8589290808547</v>
+        <v>120.1937490314534</v>
       </c>
       <c r="AG14" t="n">
-        <v>19.7949986865059</v>
+        <v>35.63896590364598</v>
       </c>
       <c r="AH14" t="n">
-        <v>170.874293346108</v>
+        <v>85.88177820351549</v>
       </c>
       <c r="AI14" t="n">
-        <v>91.50022486621206</v>
+        <v>41.26277061017447</v>
       </c>
       <c r="AJ14" t="n">
-        <v>61.60274235016744</v>
+        <v>36.30261572436303</v>
       </c>
       <c r="AK14" t="n">
-        <v>48.58152338707962</v>
+        <v>79.42996008579968</v>
       </c>
       <c r="AL14" t="n">
-        <v>20.60075790205492</v>
+        <v>85.32969169016404</v>
       </c>
       <c r="AM14" t="n">
-        <v>51.66876978679856</v>
+        <v>50.36327911604523</v>
       </c>
       <c r="AN14" t="n">
-        <v>98.26170902827974</v>
+        <v>62.49407454830446</v>
       </c>
       <c r="AO14" t="n">
-        <v>38.11041081321621</v>
+        <v>30.79473194510784</v>
       </c>
       <c r="AP14" t="n">
-        <v>30.92901780520454</v>
+        <v>33.59624335767524</v>
       </c>
       <c r="AQ14" t="n">
-        <v>21.12244186047907</v>
+        <v>20.38752781174897</v>
       </c>
       <c r="AR14" t="n">
-        <v>26.17315875401332</v>
+        <v>29.1275481601564</v>
       </c>
       <c r="AS14" t="n">
-        <v>16.77192356956326</v>
+        <v>13.30082172359744</v>
       </c>
       <c r="AT14" t="n">
-        <v>16.60601036245617</v>
+        <v>14.75864300582655</v>
       </c>
       <c r="AU14" t="n">
-        <v>17.23688210415897</v>
+        <v>18.32351454565839</v>
       </c>
       <c r="AV14" t="n">
-        <v>22.47724914738017</v>
+        <v>18.15308664822527</v>
       </c>
       <c r="AW14" t="n">
-        <v>23.68208506570484</v>
+        <v>13.40425984793143</v>
       </c>
       <c r="AX14" t="n">
-        <v>14.96780443582868</v>
+        <v>16.19507649290576</v>
       </c>
     </row>
     <row r="15">
@@ -2669,148 +2669,148 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>0.45258686449514</v>
+        <v>2.894713737418615</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7467079291045273</v>
+        <v>4.251529244458228</v>
       </c>
       <c r="E15" t="n">
-        <v>2.791418296989641</v>
+        <v>2.823668777606329</v>
       </c>
       <c r="F15" t="n">
-        <v>6.214663174792247</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>9.358185745890291</v>
+        <v>1.433710651223194</v>
       </c>
       <c r="H15" t="n">
-        <v>5.074556196531375</v>
+        <v>0.655366140635763</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.910809854083259</v>
       </c>
       <c r="J15" t="n">
-        <v>15.19907123049296</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>5.12225459450261</v>
+        <v>5.649152747486538</v>
       </c>
       <c r="L15" t="n">
-        <v>7.071192317858991</v>
+        <v>12.07716143877333</v>
       </c>
       <c r="M15" t="n">
-        <v>7.491919535716627</v>
+        <v>1.876526766663653</v>
       </c>
       <c r="N15" t="n">
-        <v>4.127677941106681</v>
+        <v>7.595143184375305</v>
       </c>
       <c r="O15" t="n">
-        <v>11.8456080686297</v>
+        <v>6.700084888640758</v>
       </c>
       <c r="P15" t="n">
-        <v>2.935681256248498</v>
+        <v>2.487138078933607</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.580941836840918</v>
+        <v>2.429899539584672</v>
       </c>
       <c r="R15" t="n">
-        <v>4.955427730752136</v>
+        <v>3.683938388049056</v>
       </c>
       <c r="S15" t="n">
-        <v>3.454592844113725</v>
+        <v>1.815896663554293</v>
       </c>
       <c r="T15" t="n">
-        <v>0.7301189642790784</v>
+        <v>11.22994088457496</v>
       </c>
       <c r="U15" t="n">
-        <v>5.119638057348739</v>
+        <v>4.147328622038059</v>
       </c>
       <c r="V15" t="n">
-        <v>2.840515227757508</v>
+        <v>3.012781831946481</v>
       </c>
       <c r="W15" t="n">
-        <v>3.916884491689574</v>
+        <v>2.065713556989267</v>
       </c>
       <c r="X15" t="n">
-        <v>4.88257148439858</v>
+        <v>1.242699101703588</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.776376779704118</v>
+        <v>3.986196510271879</v>
       </c>
       <c r="Z15" t="n">
-        <v>5.29291035301309</v>
+        <v>5.149131547275854</v>
       </c>
       <c r="AA15" t="n">
-        <v>3.100434170603101</v>
+        <v>3.099998680024278</v>
       </c>
       <c r="AB15" t="n">
-        <v>4.12594077362879</v>
+        <v>7.306256522846104</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.929690171034529</v>
+        <v>5.740490821696347</v>
       </c>
       <c r="AD15" t="n">
-        <v>4.913051933070868</v>
+        <v>2.344700825745968</v>
       </c>
       <c r="AE15" t="n">
-        <v>5.46012056765713</v>
+        <v>5.614127122881866</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.734915855910449</v>
+        <v>2.452146045838428</v>
       </c>
       <c r="AG15" t="n">
-        <v>3.241884271370313</v>
+        <v>2.347193781666002</v>
       </c>
       <c r="AH15" t="n">
-        <v>2.112593225674836</v>
+        <v>1.702594349779376</v>
       </c>
       <c r="AI15" t="n">
-        <v>4.709691961344687</v>
+        <v>3.987402799403419</v>
       </c>
       <c r="AJ15" t="n">
-        <v>6.071755910461441</v>
+        <v>6.736631264551631</v>
       </c>
       <c r="AK15" t="n">
-        <v>3.524058568667419</v>
+        <v>3.149091637176381</v>
       </c>
       <c r="AL15" t="n">
-        <v>5.900195887109067</v>
+        <v>3.360834567244957</v>
       </c>
       <c r="AM15" t="n">
-        <v>5.902924859053501</v>
+        <v>4.794406385367044</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.105116991856995</v>
+        <v>3.269933593038997</v>
       </c>
       <c r="AO15" t="n">
-        <v>3.056171940367987</v>
+        <v>7.195185861679153</v>
       </c>
       <c r="AP15" t="n">
-        <v>4.246157357058042</v>
+        <v>2.559154486806445</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.047993742177259</v>
+        <v>3.399418515765557</v>
       </c>
       <c r="AR15" t="n">
-        <v>5.330275908622889</v>
+        <v>4.66584310731793</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.52883115318639</v>
+        <v>3.328768095103881</v>
       </c>
       <c r="AT15" t="n">
-        <v>10.807572617289</v>
+        <v>3.061163008905473</v>
       </c>
       <c r="AU15" t="n">
-        <v>5.075555008100118</v>
+        <v>4.571471053724834</v>
       </c>
       <c r="AV15" t="n">
-        <v>2.941542700657808</v>
+        <v>2.527979823810497</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.9172985069804755</v>
+        <v>4.27595882132219</v>
       </c>
       <c r="AX15" t="n">
-        <v>1.620861107872592</v>
+        <v>2.493600845292094</v>
       </c>
     </row>
     <row r="16">
@@ -2821,148 +2821,148 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>9.541713189457377</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>14.31246178399565</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>10.86362862613598</v>
+        <v>16.52302858772772</v>
       </c>
       <c r="F16" t="n">
-        <v>19.70273474941482</v>
+        <v>6.579309823428718</v>
       </c>
       <c r="G16" t="n">
-        <v>22.13062690572775</v>
+        <v>4.31155790723663</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>19.03563363261413</v>
       </c>
       <c r="I16" t="n">
-        <v>25.847105532743</v>
+        <v>6.924259103979257</v>
       </c>
       <c r="J16" t="n">
-        <v>25.48945055053708</v>
+        <v>182.7718736203391</v>
       </c>
       <c r="K16" t="n">
-        <v>38.59567320243188</v>
+        <v>384.1719642257811</v>
       </c>
       <c r="L16" t="n">
-        <v>100.8251713896478</v>
+        <v>106.6486859352852</v>
       </c>
       <c r="M16" t="n">
-        <v>5.788366134014582</v>
+        <v>17.99566789563411</v>
       </c>
       <c r="N16" t="n">
-        <v>62.81746961434493</v>
+        <v>63.97172739936073</v>
       </c>
       <c r="O16" t="n">
-        <v>213.0029896896699</v>
+        <v>68.64842735589637</v>
       </c>
       <c r="P16" t="n">
-        <v>288.7411038605049</v>
+        <v>95.06068987996153</v>
       </c>
       <c r="Q16" t="n">
-        <v>33.09450840985811</v>
+        <v>152.2155952430213</v>
       </c>
       <c r="R16" t="n">
-        <v>64.88384320918195</v>
+        <v>45.10067939185307</v>
       </c>
       <c r="S16" t="n">
-        <v>37.85436618857928</v>
+        <v>129.6528793468438</v>
       </c>
       <c r="T16" t="n">
-        <v>52.74670160026773</v>
+        <v>72.38097017556508</v>
       </c>
       <c r="U16" t="n">
-        <v>45.2695071215275</v>
+        <v>89.80278699746164</v>
       </c>
       <c r="V16" t="n">
-        <v>22.51590658458459</v>
+        <v>82.12523319008237</v>
       </c>
       <c r="W16" t="n">
-        <v>45.67341530875844</v>
+        <v>34.44825988125237</v>
       </c>
       <c r="X16" t="n">
-        <v>84.90282209375947</v>
+        <v>27.2180422136043</v>
       </c>
       <c r="Y16" t="n">
-        <v>70.67735902358216</v>
+        <v>81.15108579290531</v>
       </c>
       <c r="Z16" t="n">
-        <v>34.21774982844422</v>
+        <v>53.89715619961104</v>
       </c>
       <c r="AA16" t="n">
-        <v>71.11711967614556</v>
+        <v>51.18213105177188</v>
       </c>
       <c r="AB16" t="n">
-        <v>139.0822062690305</v>
+        <v>71.95127627152712</v>
       </c>
       <c r="AC16" t="n">
-        <v>94.65776018598928</v>
+        <v>78.47149969887394</v>
       </c>
       <c r="AD16" t="n">
-        <v>84.55649192125937</v>
+        <v>92.08254755381978</v>
       </c>
       <c r="AE16" t="n">
-        <v>36.94042859469582</v>
+        <v>139.0380415870389</v>
       </c>
       <c r="AF16" t="n">
-        <v>59.92537707029469</v>
+        <v>101.6917465050178</v>
       </c>
       <c r="AG16" t="n">
-        <v>30.90557899907057</v>
+        <v>53.58855331342383</v>
       </c>
       <c r="AH16" t="n">
-        <v>27.0963279666528</v>
+        <v>66.14938525079981</v>
       </c>
       <c r="AI16" t="n">
-        <v>7.490305219343345</v>
+        <v>99.43091359499394</v>
       </c>
       <c r="AJ16" t="n">
-        <v>24.03095289930252</v>
+        <v>47.12113225611354</v>
       </c>
       <c r="AK16" t="n">
-        <v>35.21299333998519</v>
+        <v>35.89651497745717</v>
       </c>
       <c r="AL16" t="n">
-        <v>60.74460292593866</v>
+        <v>19.09706413379788</v>
       </c>
       <c r="AM16" t="n">
-        <v>14.62961022565039</v>
+        <v>29.13138850325041</v>
       </c>
       <c r="AN16" t="n">
-        <v>29.82498181051338</v>
+        <v>15.69712774102898</v>
       </c>
       <c r="AO16" t="n">
-        <v>18.77817599429433</v>
+        <v>13.25499467072971</v>
       </c>
       <c r="AP16" t="n">
-        <v>13.93200727544547</v>
+        <v>11.91221547399307</v>
       </c>
       <c r="AQ16" t="n">
-        <v>12.18414710010506</v>
+        <v>14.11476820803462</v>
       </c>
       <c r="AR16" t="n">
-        <v>10.62220324867827</v>
+        <v>13.63675606160666</v>
       </c>
       <c r="AS16" t="n">
-        <v>10.44754937713321</v>
+        <v>19.00095133768331</v>
       </c>
       <c r="AT16" t="n">
-        <v>9.694679635616467</v>
+        <v>15.2243678876754</v>
       </c>
       <c r="AU16" t="n">
-        <v>21.73712053866537</v>
+        <v>7.881016443146524</v>
       </c>
       <c r="AV16" t="n">
-        <v>35.53668170297331</v>
+        <v>7.023625298141559</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.956063150187384</v>
+        <v>12.11939790059857</v>
       </c>
       <c r="AX16" t="n">
-        <v>5.276157476765828</v>
+        <v>4.341222160694042</v>
       </c>
     </row>
     <row r="17">
@@ -2973,148 +2973,148 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>17.44043360043499</v>
+        <v>25.47729771130593</v>
       </c>
       <c r="D17" t="n">
-        <v>26.42976823514222</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>22.38142718049912</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>18.90246071750815</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>39.8387202125556</v>
+        <v>9.397665223918162</v>
       </c>
       <c r="H17" t="n">
-        <v>21.93941498161603</v>
+        <v>36.72336551412605</v>
       </c>
       <c r="I17" t="n">
-        <v>22.36654190010604</v>
+        <v>111.3612149191848</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>68.09647103787105</v>
       </c>
       <c r="K17" t="n">
-        <v>117.1423454164365</v>
+        <v>45.33453080673796</v>
       </c>
       <c r="L17" t="n">
-        <v>47.50777274594923</v>
+        <v>21.8140977508975</v>
       </c>
       <c r="M17" t="n">
-        <v>76.43336778919866</v>
+        <v>54.47643110867935</v>
       </c>
       <c r="N17" t="n">
-        <v>118.4992539156294</v>
+        <v>52.62296295173142</v>
       </c>
       <c r="O17" t="n">
-        <v>63.15228330260219</v>
+        <v>70.89980948872437</v>
       </c>
       <c r="P17" t="n">
-        <v>16.0740743819216</v>
+        <v>66.62868101603884</v>
       </c>
       <c r="Q17" t="n">
-        <v>61.99899834609258</v>
+        <v>40.64005121466185</v>
       </c>
       <c r="R17" t="n">
-        <v>62.27680326748282</v>
+        <v>10.70489746249716</v>
       </c>
       <c r="S17" t="n">
-        <v>26.09649701424911</v>
+        <v>14.07966450702238</v>
       </c>
       <c r="T17" t="n">
-        <v>42.23838494415934</v>
+        <v>62.92521736533546</v>
       </c>
       <c r="U17" t="n">
-        <v>49.78441289925032</v>
+        <v>29.90717781927369</v>
       </c>
       <c r="V17" t="n">
-        <v>87.19884639836083</v>
+        <v>34.2988018891083</v>
       </c>
       <c r="W17" t="n">
-        <v>50.07326263661442</v>
+        <v>81.20020307387057</v>
       </c>
       <c r="X17" t="n">
-        <v>3.926223268932942</v>
+        <v>6.925803363785537</v>
       </c>
       <c r="Y17" t="n">
-        <v>60.70756553685088</v>
+        <v>109.4464212210681</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.71225095630584</v>
+        <v>62.24654624382948</v>
       </c>
       <c r="AA17" t="n">
-        <v>21.17890599035911</v>
+        <v>40.74136502633381</v>
       </c>
       <c r="AB17" t="n">
-        <v>77.25545154686395</v>
+        <v>21.82184631483289</v>
       </c>
       <c r="AC17" t="n">
-        <v>100.8120778392842</v>
+        <v>18.66473648169315</v>
       </c>
       <c r="AD17" t="n">
-        <v>1.063791943325625</v>
+        <v>31.23191854921769</v>
       </c>
       <c r="AE17" t="n">
-        <v>34.64605047630987</v>
+        <v>41.6121400387501</v>
       </c>
       <c r="AF17" t="n">
-        <v>113.1006986470752</v>
+        <v>20.73590582550727</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>26.38283673735343</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>25.22532251374796</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>61.56856226179332</v>
       </c>
       <c r="AJ17" t="n">
-        <v>24.1668401840446</v>
+        <v>62.45385482300326</v>
       </c>
       <c r="AK17" t="n">
-        <v>25.98526865129744</v>
+        <v>25.51594860139494</v>
       </c>
       <c r="AL17" t="n">
-        <v>33.30898184600857</v>
+        <v>73.0543184400709</v>
       </c>
       <c r="AM17" t="n">
-        <v>4.979880631826987</v>
+        <v>26.15522462877869</v>
       </c>
       <c r="AN17" t="n">
-        <v>14.04865509050459</v>
+        <v>9.342240974676734</v>
       </c>
       <c r="AO17" t="n">
-        <v>31.03054912671398</v>
+        <v>27.14550814955461</v>
       </c>
       <c r="AP17" t="n">
-        <v>28.49154075666976</v>
+        <v>5.022968949346483</v>
       </c>
       <c r="AQ17" t="n">
-        <v>26.06656468495893</v>
+        <v>1.782205376696364</v>
       </c>
       <c r="AR17" t="n">
-        <v>26.7561991849462</v>
+        <v>36.09746358616633</v>
       </c>
       <c r="AS17" t="n">
-        <v>20.96505476671971</v>
+        <v>2.196862548565323</v>
       </c>
       <c r="AT17" t="n">
-        <v>44.63609969023264</v>
+        <v>19.4037941749069</v>
       </c>
       <c r="AU17" t="n">
-        <v>30.41713770318067</v>
+        <v>8.703675344006816</v>
       </c>
       <c r="AV17" t="n">
-        <v>18.7792929601129</v>
+        <v>21.04875977990045</v>
       </c>
       <c r="AW17" t="n">
-        <v>34.5485117008384</v>
+        <v>23.94899203433201</v>
       </c>
       <c r="AX17" t="n">
-        <v>45.68690732868426</v>
+        <v>19.36515651417057</v>
       </c>
     </row>
     <row r="18">
@@ -3125,148 +3125,148 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>4.850682385126714</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>15.94342029425538</v>
+        <v>2.221257914752061</v>
       </c>
       <c r="E18" t="n">
-        <v>8.320753202194169</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1.662374484176915</v>
+        <v>14.40592656086664</v>
       </c>
       <c r="G18" t="n">
-        <v>8.496157713754304</v>
+        <v>61.57304896936877</v>
       </c>
       <c r="H18" t="n">
-        <v>5.026067459483992</v>
+        <v>3.541901191456472</v>
       </c>
       <c r="I18" t="n">
-        <v>39.86437687470142</v>
+        <v>10.98585761476412</v>
       </c>
       <c r="J18" t="n">
-        <v>5.970079871006426</v>
+        <v>77.70169676193494</v>
       </c>
       <c r="K18" t="n">
-        <v>12.68688721771245</v>
+        <v>43.07190599530683</v>
       </c>
       <c r="L18" t="n">
-        <v>22.10844248638978</v>
+        <v>15.51268041514172</v>
       </c>
       <c r="M18" t="n">
-        <v>52.86235466584601</v>
+        <v>104.9989401781547</v>
       </c>
       <c r="N18" t="n">
-        <v>61.45597582631945</v>
+        <v>32.01102854037421</v>
       </c>
       <c r="O18" t="n">
-        <v>43.51279120185495</v>
+        <v>7.036935975045073</v>
       </c>
       <c r="P18" t="n">
-        <v>24.58357349087608</v>
+        <v>35.88310700143916</v>
       </c>
       <c r="Q18" t="n">
-        <v>18.01688579725111</v>
+        <v>42.70394979292936</v>
       </c>
       <c r="R18" t="n">
-        <v>6.336992111257633</v>
+        <v>14.10235809942586</v>
       </c>
       <c r="S18" t="n">
-        <v>13.25087836943103</v>
+        <v>10.19163564123303</v>
       </c>
       <c r="T18" t="n">
-        <v>1.112723679032808</v>
+        <v>20.85729841103723</v>
       </c>
       <c r="U18" t="n">
-        <v>48.77433088117489</v>
+        <v>11.89041841324568</v>
       </c>
       <c r="V18" t="n">
-        <v>44.33531815237026</v>
+        <v>18.00702665909599</v>
       </c>
       <c r="W18" t="n">
-        <v>40.19406254535993</v>
+        <v>12.56203692728659</v>
       </c>
       <c r="X18" t="n">
-        <v>12.48031255437298</v>
+        <v>45.20501235538708</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.18365990535895</v>
+        <v>21.56495617268057</v>
       </c>
       <c r="Z18" t="n">
-        <v>16.02463490486964</v>
+        <v>8.863486674052064</v>
       </c>
       <c r="AA18" t="n">
-        <v>10.08031659338825</v>
+        <v>18.77641136146705</v>
       </c>
       <c r="AB18" t="n">
-        <v>13.07413576111654</v>
+        <v>46.78859652809143</v>
       </c>
       <c r="AC18" t="n">
-        <v>13.93233497868187</v>
+        <v>26.7041732368692</v>
       </c>
       <c r="AD18" t="n">
-        <v>15.1449218560102</v>
+        <v>8.382607214065445</v>
       </c>
       <c r="AE18" t="n">
-        <v>11.52775911232999</v>
+        <v>12.74624550385051</v>
       </c>
       <c r="AF18" t="n">
-        <v>26.36047936401002</v>
+        <v>32.27050928706533</v>
       </c>
       <c r="AG18" t="n">
-        <v>14.1793529291165</v>
+        <v>11.42891236009686</v>
       </c>
       <c r="AH18" t="n">
-        <v>5.138706216213351</v>
+        <v>18.98836064407449</v>
       </c>
       <c r="AI18" t="n">
-        <v>14.84948051175015</v>
+        <v>22.25004980067963</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8.598704178336007</v>
+        <v>9.48439089068242</v>
       </c>
       <c r="AK18" t="n">
-        <v>6.010549903196946</v>
+        <v>3.899871338007601</v>
       </c>
       <c r="AL18" t="n">
-        <v>3.018763345780487</v>
+        <v>2.936749529382296</v>
       </c>
       <c r="AM18" t="n">
-        <v>2.286570008162904</v>
+        <v>4.603203360440236</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.344759461423906</v>
+        <v>4.783962491700364</v>
       </c>
       <c r="AO18" t="n">
-        <v>6.346759904527945</v>
+        <v>4.757837814912516</v>
       </c>
       <c r="AP18" t="n">
-        <v>4.245449963996323</v>
+        <v>6.655402893514438</v>
       </c>
       <c r="AQ18" t="n">
-        <v>3.11761633447476</v>
+        <v>6.538015382310114</v>
       </c>
       <c r="AR18" t="n">
-        <v>1.320878409926759</v>
+        <v>1.462571391569459</v>
       </c>
       <c r="AS18" t="n">
-        <v>3.84256538343772</v>
+        <v>0.5643204930607859</v>
       </c>
       <c r="AT18" t="n">
-        <v>4.145754472940487</v>
+        <v>4.982111544495106</v>
       </c>
       <c r="AU18" t="n">
-        <v>1.775740471848095</v>
+        <v>3.996214520710433</v>
       </c>
       <c r="AV18" t="n">
-        <v>4.875490577380162</v>
+        <v>0.6172999442762307</v>
       </c>
       <c r="AW18" t="n">
-        <v>1.675445948964622</v>
+        <v>1.418652762738882</v>
       </c>
       <c r="AX18" t="n">
-        <v>2.438145089884734</v>
+        <v>1.804222310746809</v>
       </c>
     </row>
     <row r="19">
@@ -3277,148 +3277,148 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>17.59428768511989</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>10.6182621016328</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>7.295899150406154</v>
+        <v>78.3575724303394</v>
       </c>
       <c r="F19" t="n">
-        <v>2.704637539376295</v>
+        <v>20.56474471039207</v>
       </c>
       <c r="G19" t="n">
-        <v>30.50310554997317</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>4.524733801221507</v>
+        <v>8.409429650552497</v>
       </c>
       <c r="I19" t="n">
-        <v>22.58879733786462</v>
+        <v>10.16097296428515</v>
       </c>
       <c r="J19" t="n">
-        <v>46.26788915890035</v>
+        <v>23.8724355974803</v>
       </c>
       <c r="K19" t="n">
-        <v>19.70328040116829</v>
+        <v>52.78600309160191</v>
       </c>
       <c r="L19" t="n">
-        <v>59.68520754569118</v>
+        <v>36.10155973601351</v>
       </c>
       <c r="M19" t="n">
-        <v>35.57671351940256</v>
+        <v>20.52800667468036</v>
       </c>
       <c r="N19" t="n">
-        <v>9.66119097774809</v>
+        <v>18.87001377043234</v>
       </c>
       <c r="O19" t="n">
-        <v>47.32384546430725</v>
+        <v>34.1328474727371</v>
       </c>
       <c r="P19" t="n">
-        <v>31.45786290531091</v>
+        <v>81.90931539612127</v>
       </c>
       <c r="Q19" t="n">
-        <v>23.4574096270797</v>
+        <v>1.753071306989364</v>
       </c>
       <c r="R19" t="n">
-        <v>35.20872870010157</v>
+        <v>28.15601257636663</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.350774777939465</v>
       </c>
       <c r="T19" t="n">
-        <v>28.25117250859557</v>
+        <v>19.9780901299767</v>
       </c>
       <c r="U19" t="n">
-        <v>13.544142614744</v>
+        <v>71.04921983157365</v>
       </c>
       <c r="V19" t="n">
-        <v>10.39653400583062</v>
+        <v>19.4176065358795</v>
       </c>
       <c r="W19" t="n">
-        <v>14.12250017046714</v>
+        <v>42.27525003219307</v>
       </c>
       <c r="X19" t="n">
-        <v>12.48723284712347</v>
+        <v>4.643976832825439</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.31209166412482</v>
+        <v>23.45898870433133</v>
       </c>
       <c r="Z19" t="n">
-        <v>34.06945189028558</v>
+        <v>3.784481912770523</v>
       </c>
       <c r="AA19" t="n">
-        <v>20.90540167785866</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>13.59194575768008</v>
+        <v>35.19089437089808</v>
       </c>
       <c r="AC19" t="n">
-        <v>18.45405864453117</v>
+        <v>14.85510395045586</v>
       </c>
       <c r="AD19" t="n">
-        <v>6.327070937772056</v>
+        <v>6.996402509507891</v>
       </c>
       <c r="AE19" t="n">
-        <v>8.072630653022905</v>
+        <v>16.96481846726417</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.9756125068844401</v>
+        <v>7.537715935833941</v>
       </c>
       <c r="AG19" t="n">
-        <v>7.0509237083981</v>
+        <v>1.982927587577023</v>
       </c>
       <c r="AH19" t="n">
-        <v>1.113760931470399</v>
+        <v>5.966247035959347</v>
       </c>
       <c r="AI19" t="n">
-        <v>6.275365620588165</v>
+        <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1.484201579196677</v>
+        <v>3.944528354231058</v>
       </c>
       <c r="AK19" t="n">
-        <v>19.64736126204054</v>
+        <v>14.84067300999347</v>
       </c>
       <c r="AL19" t="n">
-        <v>11.60978664189284</v>
+        <v>21.09181566539602</v>
       </c>
       <c r="AM19" t="n">
-        <v>18.64189035022281</v>
+        <v>75.48044040651223</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.904118581014981</v>
+        <v>16.66980909825034</v>
       </c>
       <c r="AO19" t="n">
-        <v>1.856762403466573</v>
+        <v>5.696400645184527</v>
       </c>
       <c r="AP19" t="n">
-        <v>6.490934473219188</v>
+        <v>19.71818524581662</v>
       </c>
       <c r="AQ19" t="n">
-        <v>9.137316778179038</v>
+        <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>8.046900950041625</v>
+        <v>18.15372883677749</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.262386165506452</v>
+        <v>5.429304606519855</v>
       </c>
       <c r="AT19" t="n">
-        <v>16.3362196055111</v>
+        <v>18.0968725451902</v>
       </c>
       <c r="AU19" t="n">
-        <v>0</v>
+        <v>6.44921997068972</v>
       </c>
       <c r="AV19" t="n">
-        <v>5.853704924778565</v>
+        <v>0.5025201142569301</v>
       </c>
       <c r="AW19" t="n">
-        <v>9.612158604315567</v>
+        <v>5.832021161354356</v>
       </c>
       <c r="AX19" t="n">
-        <v>7.331059455675268</v>
+        <v>10.71939077574051</v>
       </c>
     </row>
     <row r="20">
@@ -3429,148 +3429,148 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>18.64905347580729</v>
+        <v>15.31097062347887</v>
       </c>
       <c r="D20" t="n">
-        <v>8.91981516554257</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>20.14820869937578</v>
+        <v>35.64082003569228</v>
       </c>
       <c r="F20" t="n">
-        <v>35.07093094649612</v>
+        <v>26.03175009949921</v>
       </c>
       <c r="G20" t="n">
-        <v>34.1798989433826</v>
+        <v>32.55665704136592</v>
       </c>
       <c r="H20" t="n">
-        <v>29.5083144471838</v>
+        <v>44.57036632998873</v>
       </c>
       <c r="I20" t="n">
-        <v>26.4440477142228</v>
+        <v>19.05981472225508</v>
       </c>
       <c r="J20" t="n">
-        <v>80.40437660117715</v>
+        <v>28.50924835103803</v>
       </c>
       <c r="K20" t="n">
-        <v>23.00952038379222</v>
+        <v>74.44144221298544</v>
       </c>
       <c r="L20" t="n">
-        <v>28.693629915434</v>
+        <v>44.23887635547533</v>
       </c>
       <c r="M20" t="n">
-        <v>57.16112718291768</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>35.55941946424422</v>
+        <v>83.10561513125356</v>
       </c>
       <c r="O20" t="n">
-        <v>88.86908012240198</v>
+        <v>74.73275454730319</v>
       </c>
       <c r="P20" t="n">
-        <v>59.46543467444414</v>
+        <v>93.08107495847953</v>
       </c>
       <c r="Q20" t="n">
-        <v>77.43793962392589</v>
+        <v>46.77247813210324</v>
       </c>
       <c r="R20" t="n">
-        <v>86.99687911119678</v>
+        <v>35.67622221713843</v>
       </c>
       <c r="S20" t="n">
-        <v>132.1408894080039</v>
+        <v>51.82122029447063</v>
       </c>
       <c r="T20" t="n">
-        <v>43.70909092421988</v>
+        <v>37.48149770784129</v>
       </c>
       <c r="U20" t="n">
-        <v>111.4444188871715</v>
+        <v>59.36151370034252</v>
       </c>
       <c r="V20" t="n">
-        <v>55.93719870358002</v>
+        <v>33.38638970273463</v>
       </c>
       <c r="W20" t="n">
-        <v>45.01628380939574</v>
+        <v>44.15647484393885</v>
       </c>
       <c r="X20" t="n">
-        <v>40.36610587705929</v>
+        <v>95.01599831150702</v>
       </c>
       <c r="Y20" t="n">
-        <v>35.53811309466975</v>
+        <v>138.2332073984071</v>
       </c>
       <c r="Z20" t="n">
-        <v>183.2096708351019</v>
+        <v>59.2356692894266</v>
       </c>
       <c r="AA20" t="n">
-        <v>61.03343503346835</v>
+        <v>144.5706794807056</v>
       </c>
       <c r="AB20" t="n">
-        <v>82.87354734882469</v>
+        <v>92.25601732998946</v>
       </c>
       <c r="AC20" t="n">
-        <v>163.4075102037859</v>
+        <v>120.4044511501327</v>
       </c>
       <c r="AD20" t="n">
-        <v>176.1126425005668</v>
+        <v>150.5181415707008</v>
       </c>
       <c r="AE20" t="n">
-        <v>103.1131008486439</v>
+        <v>172.6023450104239</v>
       </c>
       <c r="AF20" t="n">
-        <v>115.1487385271942</v>
+        <v>163.4242824249997</v>
       </c>
       <c r="AG20" t="n">
-        <v>20.36164071711606</v>
+        <v>144.8466540170786</v>
       </c>
       <c r="AH20" t="n">
-        <v>68.08069169666629</v>
+        <v>136.0717515332936</v>
       </c>
       <c r="AI20" t="n">
-        <v>70.80621389175778</v>
+        <v>111.7246090050085</v>
       </c>
       <c r="AJ20" t="n">
-        <v>74.20706287870723</v>
+        <v>45.94591522781144</v>
       </c>
       <c r="AK20" t="n">
-        <v>39.76193200680712</v>
+        <v>97.81925371288408</v>
       </c>
       <c r="AL20" t="n">
-        <v>85.37957770182187</v>
+        <v>30.20455127870774</v>
       </c>
       <c r="AM20" t="n">
-        <v>12.40848258416569</v>
+        <v>43.06437867852605</v>
       </c>
       <c r="AN20" t="n">
-        <v>21.17456697598769</v>
+        <v>17.40433139400039</v>
       </c>
       <c r="AO20" t="n">
-        <v>36.62006657312638</v>
+        <v>38.6311193074798</v>
       </c>
       <c r="AP20" t="n">
-        <v>24.28336016653281</v>
+        <v>39.72380607047938</v>
       </c>
       <c r="AQ20" t="n">
-        <v>24.34572342003143</v>
+        <v>26.5948541079047</v>
       </c>
       <c r="AR20" t="n">
-        <v>14.85229688649502</v>
+        <v>27.70202479208611</v>
       </c>
       <c r="AS20" t="n">
-        <v>17.99049138904158</v>
+        <v>21.75373084668513</v>
       </c>
       <c r="AT20" t="n">
-        <v>23.62888502470922</v>
+        <v>23.1468032618763</v>
       </c>
       <c r="AU20" t="n">
-        <v>29.32685267086236</v>
+        <v>26.1928114551599</v>
       </c>
       <c r="AV20" t="n">
-        <v>12.11987433319705</v>
+        <v>8.401908108642786</v>
       </c>
       <c r="AW20" t="n">
-        <v>22.64283555911494</v>
+        <v>13.09597065551583</v>
       </c>
       <c r="AX20" t="n">
-        <v>13.39300106947817</v>
+        <v>24.36507198517085</v>
       </c>
     </row>
     <row r="21">
@@ -3581,148 +3581,148 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>3.400230599389514</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>5.225240757016095</v>
+        <v>3.506302577723938</v>
       </c>
       <c r="E21" t="n">
-        <v>1.743519307675949</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4226688480409064</v>
+        <v>1.847557433761936</v>
       </c>
       <c r="G21" t="n">
-        <v>2.848896986255563</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>7.131504341973693</v>
+        <v>0.4464371103937711</v>
       </c>
       <c r="I21" t="n">
-        <v>5.478552303909096</v>
+        <v>2.377061697978966</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2780792940223289</v>
+        <v>2.562851247133033</v>
       </c>
       <c r="K21" t="n">
-        <v>4.306448344051349</v>
+        <v>3.70804440851767</v>
       </c>
       <c r="L21" t="n">
-        <v>5.793138868768791</v>
+        <v>1.724038871519917</v>
       </c>
       <c r="M21" t="n">
-        <v>9.10235645483839</v>
+        <v>3.928994273920072</v>
       </c>
       <c r="N21" t="n">
-        <v>3.616046549728467</v>
+        <v>1.464912595751366</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5448703718915626</v>
+        <v>4.826515947097933</v>
       </c>
       <c r="P21" t="n">
-        <v>3.715832309042212</v>
+        <v>1.055337651175114</v>
       </c>
       <c r="Q21" t="n">
-        <v>18.82299429604058</v>
+        <v>14.29700382356282</v>
       </c>
       <c r="R21" t="n">
-        <v>2.238078966786023</v>
+        <v>2.162063709572856</v>
       </c>
       <c r="S21" t="n">
-        <v>7.957922727957765</v>
+        <v>1.250157374327587</v>
       </c>
       <c r="T21" t="n">
-        <v>2.749066321749289</v>
+        <v>4.290036626452178</v>
       </c>
       <c r="U21" t="n">
-        <v>6.114960524610116</v>
+        <v>3.073440051152585</v>
       </c>
       <c r="V21" t="n">
-        <v>2.844858977705574</v>
+        <v>3.021193363714816</v>
       </c>
       <c r="W21" t="n">
-        <v>2.812511673236479</v>
+        <v>8.34796768444885</v>
       </c>
       <c r="X21" t="n">
-        <v>3.600456210500109</v>
+        <v>2.127816726092494</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.065065989183158</v>
+        <v>4.031418389730502</v>
       </c>
       <c r="Z21" t="n">
-        <v>5.254963553285426</v>
+        <v>3.775032909254594</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.94281492280851</v>
+        <v>6.677451861741407</v>
       </c>
       <c r="AB21" t="n">
-        <v>2.36655571737281</v>
+        <v>4.524764182713643</v>
       </c>
       <c r="AC21" t="n">
-        <v>5.595577366879218</v>
+        <v>5.52135432693605</v>
       </c>
       <c r="AD21" t="n">
-        <v>5.217402370722571</v>
+        <v>3.769838719252981</v>
       </c>
       <c r="AE21" t="n">
-        <v>6.139193276574068</v>
+        <v>4.338915065638859</v>
       </c>
       <c r="AF21" t="n">
-        <v>7.565549066803139</v>
+        <v>2.665588410054511</v>
       </c>
       <c r="AG21" t="n">
-        <v>8.608103552158543</v>
+        <v>5.807198804252033</v>
       </c>
       <c r="AH21" t="n">
-        <v>2.80506091050382</v>
+        <v>7.0753793719322</v>
       </c>
       <c r="AI21" t="n">
-        <v>5.04586000416881</v>
+        <v>5.28769401593189</v>
       </c>
       <c r="AJ21" t="n">
-        <v>6.22625166990988</v>
+        <v>5.216928717475774</v>
       </c>
       <c r="AK21" t="n">
-        <v>4.618848747302603</v>
+        <v>3.353101288335262</v>
       </c>
       <c r="AL21" t="n">
-        <v>5.933147198536918</v>
+        <v>1.497816266496463</v>
       </c>
       <c r="AM21" t="n">
-        <v>11.54566230649927</v>
+        <v>5.248002436299137</v>
       </c>
       <c r="AN21" t="n">
-        <v>8.663498172787461</v>
+        <v>8.083917790744945</v>
       </c>
       <c r="AO21" t="n">
-        <v>4.066822006098313</v>
+        <v>3.359573071524291</v>
       </c>
       <c r="AP21" t="n">
-        <v>4.627101831138335</v>
+        <v>3.688799023394369</v>
       </c>
       <c r="AQ21" t="n">
-        <v>4.513402878770203</v>
+        <v>2.670934256968424</v>
       </c>
       <c r="AR21" t="n">
-        <v>5.46327524160462</v>
+        <v>9.06888840321675</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.241046654823382</v>
+        <v>5.937121149339033</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.974019037881035</v>
+        <v>4.745210182595989</v>
       </c>
       <c r="AU21" t="n">
-        <v>7.090640244260065</v>
+        <v>1.930686700318839</v>
       </c>
       <c r="AV21" t="n">
-        <v>3.619529380036476</v>
+        <v>0.4765709815406016</v>
       </c>
       <c r="AW21" t="n">
-        <v>1.544427739917461</v>
+        <v>3.485754263543641</v>
       </c>
       <c r="AX21" t="n">
-        <v>3.830212781210637</v>
+        <v>2.688924418337617</v>
       </c>
     </row>
     <row r="22">
@@ -3733,148 +3733,148 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>8.933839644086959</v>
+        <v>9.69308781613768</v>
       </c>
       <c r="D22" t="n">
-        <v>4.48863944501281</v>
+        <v>15.30137356543407</v>
       </c>
       <c r="E22" t="n">
-        <v>21.32359704879869</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>7.39554742806345</v>
+        <v>20.95258934992913</v>
       </c>
       <c r="G22" t="n">
-        <v>23.28022369396923</v>
+        <v>4.320778396154058</v>
       </c>
       <c r="H22" t="n">
-        <v>17.76307901807696</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>54.1175979046472</v>
+        <v>139.1959072407416</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>43.28426178240531</v>
       </c>
       <c r="K22" t="n">
-        <v>45.41474718858526</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>122.3343088171433</v>
+        <v>116.1941517208204</v>
       </c>
       <c r="M22" t="n">
-        <v>110.9282958033038</v>
+        <v>54.69262576114425</v>
       </c>
       <c r="N22" t="n">
-        <v>26.6484025546572</v>
+        <v>65.08844049438251</v>
       </c>
       <c r="O22" t="n">
-        <v>45.92869628932716</v>
+        <v>54.29294465612043</v>
       </c>
       <c r="P22" t="n">
-        <v>102.7646641418784</v>
+        <v>31.10121482207973</v>
       </c>
       <c r="Q22" t="n">
-        <v>102.9003071209664</v>
+        <v>26.20141004191729</v>
       </c>
       <c r="R22" t="n">
-        <v>66.97429283123307</v>
+        <v>42.22226809086478</v>
       </c>
       <c r="S22" t="n">
-        <v>51.05665943498033</v>
+        <v>15.58160907807169</v>
       </c>
       <c r="T22" t="n">
-        <v>33.49928340062274</v>
+        <v>35.33997893404662</v>
       </c>
       <c r="U22" t="n">
-        <v>57.8109032747353</v>
+        <v>78.04780853089692</v>
       </c>
       <c r="V22" t="n">
-        <v>34.33931519108822</v>
+        <v>29.06786929988234</v>
       </c>
       <c r="W22" t="n">
-        <v>25.39676484116661</v>
+        <v>54.70140242165084</v>
       </c>
       <c r="X22" t="n">
-        <v>74.50390912026188</v>
+        <v>93.31140235667417</v>
       </c>
       <c r="Y22" t="n">
-        <v>123.8820856125484</v>
+        <v>51.91181112227302</v>
       </c>
       <c r="Z22" t="n">
-        <v>48.46451896088353</v>
+        <v>58.8979512703925</v>
       </c>
       <c r="AA22" t="n">
-        <v>69.70816477930001</v>
+        <v>56.40940149810711</v>
       </c>
       <c r="AB22" t="n">
-        <v>107.6262809171572</v>
+        <v>53.54916023825503</v>
       </c>
       <c r="AC22" t="n">
-        <v>67.44758864509666</v>
+        <v>35.68772656793413</v>
       </c>
       <c r="AD22" t="n">
-        <v>99.04319095066629</v>
+        <v>59.69159665157957</v>
       </c>
       <c r="AE22" t="n">
-        <v>61.09479379702309</v>
+        <v>65.65859701387011</v>
       </c>
       <c r="AF22" t="n">
-        <v>44.91303394166874</v>
+        <v>59.94173827716967</v>
       </c>
       <c r="AG22" t="n">
-        <v>75.02093142949548</v>
+        <v>83.23685970847596</v>
       </c>
       <c r="AH22" t="n">
-        <v>30.91647223567575</v>
+        <v>34.08445701328097</v>
       </c>
       <c r="AI22" t="n">
-        <v>112.5243682233959</v>
+        <v>52.76015975163098</v>
       </c>
       <c r="AJ22" t="n">
-        <v>22.43109067946585</v>
+        <v>92.79581186292776</v>
       </c>
       <c r="AK22" t="n">
-        <v>34.59114889755132</v>
+        <v>29.68141474184605</v>
       </c>
       <c r="AL22" t="n">
-        <v>19.66751662887539</v>
+        <v>2.014046402795588</v>
       </c>
       <c r="AM22" t="n">
-        <v>15.43362425061809</v>
+        <v>53.49209929704042</v>
       </c>
       <c r="AN22" t="n">
-        <v>12.68329524578025</v>
+        <v>43.86929747506801</v>
       </c>
       <c r="AO22" t="n">
-        <v>14.6221166538828</v>
+        <v>18.9068465091523</v>
       </c>
       <c r="AP22" t="n">
-        <v>11.18444392549577</v>
+        <v>2.692830810967352</v>
       </c>
       <c r="AQ22" t="n">
-        <v>32.23730497311461</v>
+        <v>10.72236597817409</v>
       </c>
       <c r="AR22" t="n">
-        <v>8.563774333050272</v>
+        <v>16.61037914615694</v>
       </c>
       <c r="AS22" t="n">
-        <v>12.14030782071399</v>
+        <v>9.763180849377564</v>
       </c>
       <c r="AT22" t="n">
-        <v>11.5719935477472</v>
+        <v>6.041043338897087</v>
       </c>
       <c r="AU22" t="n">
-        <v>24.81393699500802</v>
+        <v>12.0463514126805</v>
       </c>
       <c r="AV22" t="n">
-        <v>11.30702087815999</v>
+        <v>32.5885801183563</v>
       </c>
       <c r="AW22" t="n">
-        <v>15.37746846155461</v>
+        <v>10.587142417569</v>
       </c>
       <c r="AX22" t="n">
-        <v>15.26828631706817</v>
+        <v>9.467653051679703</v>
       </c>
     </row>
     <row r="23">
@@ -3885,148 +3885,148 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>19.23255139668768</v>
       </c>
       <c r="D23" t="n">
-        <v>19.73351821231884</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1.281503390224019</v>
+        <v>29.33537554150121</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>35.37238163905906</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>12.49793676638721</v>
       </c>
       <c r="H23" t="n">
-        <v>8.557147245104813</v>
+        <v>14.1147741306764</v>
       </c>
       <c r="I23" t="n">
-        <v>55.35098341265127</v>
+        <v>21.47157791968348</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>109.6613288786097</v>
       </c>
       <c r="K23" t="n">
-        <v>23.46631171041144</v>
+        <v>11.68354312322748</v>
       </c>
       <c r="L23" t="n">
-        <v>13.09539507142583</v>
+        <v>25.4497319393564</v>
       </c>
       <c r="M23" t="n">
-        <v>50.2577769553063</v>
+        <v>90.20877309610115</v>
       </c>
       <c r="N23" t="n">
-        <v>0.6540146166099561</v>
+        <v>64.72279858376942</v>
       </c>
       <c r="O23" t="n">
-        <v>80.67788808140929</v>
+        <v>12.18854934836643</v>
       </c>
       <c r="P23" t="n">
-        <v>15.2969974674211</v>
+        <v>43.9517953398237</v>
       </c>
       <c r="Q23" t="n">
-        <v>169.1428189705988</v>
+        <v>25.77085675499138</v>
       </c>
       <c r="R23" t="n">
-        <v>4.585412139223976</v>
+        <v>7.467473529718188</v>
       </c>
       <c r="S23" t="n">
-        <v>45.24804556197319</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>11.1307511029059</v>
+        <v>4.557161214218759</v>
       </c>
       <c r="U23" t="n">
-        <v>31.18342414362411</v>
+        <v>30.22143192181354</v>
       </c>
       <c r="V23" t="n">
-        <v>54.05024566522408</v>
+        <v>73.46128077863348</v>
       </c>
       <c r="W23" t="n">
-        <v>59.1273791899162</v>
+        <v>28.12515426292939</v>
       </c>
       <c r="X23" t="n">
-        <v>35.74324011120961</v>
+        <v>35.47666813672371</v>
       </c>
       <c r="Y23" t="n">
-        <v>25.81737705387604</v>
+        <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>35.40463958807271</v>
+        <v>141.747832696923</v>
       </c>
       <c r="AA23" t="n">
-        <v>9.785609381846175</v>
+        <v>50.25412520531791</v>
       </c>
       <c r="AB23" t="n">
-        <v>29.01986076475327</v>
+        <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>23.66401640075513</v>
+        <v>44.56053479389926</v>
       </c>
       <c r="AD23" t="n">
-        <v>44.77579799961082</v>
+        <v>34.32421439670307</v>
       </c>
       <c r="AE23" t="n">
-        <v>27.27863638483159</v>
+        <v>52.14773236010389</v>
       </c>
       <c r="AF23" t="n">
-        <v>63.10253077950387</v>
+        <v>30.56101457618741</v>
       </c>
       <c r="AG23" t="n">
-        <v>35.60069426015698</v>
+        <v>41.84718364105148</v>
       </c>
       <c r="AH23" t="n">
-        <v>19.3460025595457</v>
+        <v>18.24628147518771</v>
       </c>
       <c r="AI23" t="n">
-        <v>31.04527700609435</v>
+        <v>37.28164812398907</v>
       </c>
       <c r="AJ23" t="n">
-        <v>32.91866343211318</v>
+        <v>25.52385064571491</v>
       </c>
       <c r="AK23" t="n">
-        <v>26.81619147499253</v>
+        <v>45.12164862363318</v>
       </c>
       <c r="AL23" t="n">
-        <v>6.726258184597464</v>
+        <v>0.6959273205450127</v>
       </c>
       <c r="AM23" t="n">
-        <v>4.315922160422534</v>
+        <v>52.45657562848611</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>25.8093647022779</v>
       </c>
       <c r="AO23" t="n">
-        <v>11.51056040975649</v>
+        <v>28.10489243901014</v>
       </c>
       <c r="AP23" t="n">
-        <v>15.92716485972078</v>
+        <v>24.93105843491297</v>
       </c>
       <c r="AQ23" t="n">
-        <v>20.80894298875898</v>
+        <v>21.32117630758997</v>
       </c>
       <c r="AR23" t="n">
-        <v>37.1792361099375</v>
+        <v>30.00071479596441</v>
       </c>
       <c r="AS23" t="n">
-        <v>22.09901183152161</v>
+        <v>24.00832137987519</v>
       </c>
       <c r="AT23" t="n">
-        <v>24.60099145640845</v>
+        <v>22.88616802558093</v>
       </c>
       <c r="AU23" t="n">
-        <v>37.5301649834132</v>
+        <v>6.89002638591756</v>
       </c>
       <c r="AV23" t="n">
-        <v>25.26031817239736</v>
+        <v>31.05444289773004</v>
       </c>
       <c r="AW23" t="n">
-        <v>29.00273373913097</v>
+        <v>23.85956731621106</v>
       </c>
       <c r="AX23" t="n">
-        <v>25.06853834215815</v>
+        <v>24.46105441522118</v>
       </c>
     </row>
     <row r="24">
@@ -4037,148 +4037,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>4.696535212698323</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>5.197197687609778</v>
+        <v>10.03566945277853</v>
       </c>
       <c r="E24" t="n">
-        <v>3.079152288090762</v>
+        <v>8.842591013812481</v>
       </c>
       <c r="F24" t="n">
-        <v>2.991374953127538</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.236722901209149</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>8.909476382381683</v>
+        <v>0.2502378748301837</v>
       </c>
       <c r="I24" t="n">
-        <v>20.01941999849248</v>
+        <v>0.409601976411853</v>
       </c>
       <c r="J24" t="n">
-        <v>2.292433702115362</v>
+        <v>6.085114368350549</v>
       </c>
       <c r="K24" t="n">
-        <v>17.76221340572294</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>2.328216364282056</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>12.98345949930095</v>
+        <v>15.4429320211908</v>
       </c>
       <c r="N24" t="n">
-        <v>23.19717549839235</v>
+        <v>16.81436204529773</v>
       </c>
       <c r="O24" t="n">
-        <v>14.88884845476129</v>
+        <v>61.29591483650228</v>
       </c>
       <c r="P24" t="n">
-        <v>41.76339547309983</v>
+        <v>12.45293277886899</v>
       </c>
       <c r="Q24" t="n">
-        <v>10.54140415257792</v>
+        <v>22.38804500154061</v>
       </c>
       <c r="R24" t="n">
-        <v>40.22151177816028</v>
+        <v>15.88302660568705</v>
       </c>
       <c r="S24" t="n">
-        <v>16.45310763184046</v>
+        <v>18.49566306302437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.63353454382592</v>
+        <v>103.9957428989898</v>
       </c>
       <c r="U24" t="n">
-        <v>36.97510451022923</v>
+        <v>10.08357834885303</v>
       </c>
       <c r="V24" t="n">
-        <v>15.30374321023061</v>
+        <v>39.17270934217416</v>
       </c>
       <c r="W24" t="n">
-        <v>15.27446918152686</v>
+        <v>11.68475867366247</v>
       </c>
       <c r="X24" t="n">
-        <v>5.022403676464416</v>
+        <v>19.66264289444783</v>
       </c>
       <c r="Y24" t="n">
-        <v>20.16228915414166</v>
+        <v>5.370315031293353</v>
       </c>
       <c r="Z24" t="n">
-        <v>17.34601283679241</v>
+        <v>6.915797630750592</v>
       </c>
       <c r="AA24" t="n">
-        <v>12.27128384846997</v>
+        <v>16.67261410081596</v>
       </c>
       <c r="AB24" t="n">
-        <v>21.26535693788787</v>
+        <v>9.569757722604793</v>
       </c>
       <c r="AC24" t="n">
-        <v>15.55327464131189</v>
+        <v>25.36615348009634</v>
       </c>
       <c r="AD24" t="n">
-        <v>10.82245283992037</v>
+        <v>15.49828285350696</v>
       </c>
       <c r="AE24" t="n">
-        <v>9.161461946237818</v>
+        <v>15.10723004817824</v>
       </c>
       <c r="AF24" t="n">
-        <v>13.36258602563074</v>
+        <v>12.06564533265989</v>
       </c>
       <c r="AG24" t="n">
-        <v>6.877903383810894</v>
+        <v>4.550162141439842</v>
       </c>
       <c r="AH24" t="n">
-        <v>19.99659470962905</v>
+        <v>1.272846246188172</v>
       </c>
       <c r="AI24" t="n">
-        <v>13.65986194544575</v>
+        <v>2.906915440292084</v>
       </c>
       <c r="AJ24" t="n">
-        <v>16.91748538667296</v>
+        <v>16.36995247029239</v>
       </c>
       <c r="AK24" t="n">
-        <v>0.1803859849998954</v>
+        <v>24.86149993669763</v>
       </c>
       <c r="AL24" t="n">
-        <v>6.393701697375247</v>
+        <v>2.248135239783347</v>
       </c>
       <c r="AM24" t="n">
-        <v>4.703262234022435</v>
+        <v>4.843054508089177</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.348325199994423</v>
+        <v>1.938091963934371</v>
       </c>
       <c r="AO24" t="n">
-        <v>1.239553079031857</v>
+        <v>0.7391115013171002</v>
       </c>
       <c r="AP24" t="n">
-        <v>2.310742521725673</v>
+        <v>6.364048728745936</v>
       </c>
       <c r="AQ24" t="n">
-        <v>2.984258959373079</v>
+        <v>2.91849749358703</v>
       </c>
       <c r="AR24" t="n">
-        <v>2.106875275313748</v>
+        <v>1.889997973554729</v>
       </c>
       <c r="AS24" t="n">
-        <v>7.030503827352378</v>
+        <v>1.670902079693561</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.785830895528811</v>
+        <v>2.093636507724873</v>
       </c>
       <c r="AU24" t="n">
-        <v>0.5225878765568728</v>
+        <v>2.284179574614059</v>
       </c>
       <c r="AV24" t="n">
-        <v>5.21735499570107</v>
+        <v>4.303800524228988</v>
       </c>
       <c r="AW24" t="n">
-        <v>0</v>
+        <v>6.368460113913443</v>
       </c>
       <c r="AX24" t="n">
-        <v>5.375837144257236</v>
+        <v>0.868641807066045</v>
       </c>
     </row>
     <row r="25">
@@ -4189,148 +4189,148 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>1.514008097713594</v>
+        <v>3.233000329898811</v>
       </c>
       <c r="D25" t="n">
-        <v>21.65693307599739</v>
+        <v>19.28952098884385</v>
       </c>
       <c r="E25" t="n">
-        <v>10.82499492377744</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>11.73830472457633</v>
+        <v>4.639477824992564</v>
       </c>
       <c r="G25" t="n">
-        <v>36.62791783311414</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>6.608818183633133</v>
+        <v>55.83053719192927</v>
       </c>
       <c r="I25" t="n">
-        <v>38.41601748501289</v>
+        <v>43.91213260405794</v>
       </c>
       <c r="J25" t="n">
-        <v>22.87348499945947</v>
+        <v>22.87121048115781</v>
       </c>
       <c r="K25" t="n">
-        <v>9.541156697877485</v>
+        <v>39.9909837735846</v>
       </c>
       <c r="L25" t="n">
-        <v>67.87148669379286</v>
+        <v>32.83914160064551</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>125.1759705109777</v>
       </c>
       <c r="N25" t="n">
-        <v>39.32649343563077</v>
+        <v>17.9074808967906</v>
       </c>
       <c r="O25" t="n">
-        <v>13.06340830811634</v>
+        <v>75.77124974924219</v>
       </c>
       <c r="P25" t="n">
-        <v>43.4494649222955</v>
+        <v>30.70436157027016</v>
       </c>
       <c r="Q25" t="n">
-        <v>35.7951486171963</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>87.97653591984655</v>
+        <v>65.66783879588979</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>16.45823865723701</v>
       </c>
       <c r="T25" t="n">
-        <v>8.480741588788952</v>
+        <v>47.00232381868853</v>
       </c>
       <c r="U25" t="n">
-        <v>24.53208021268602</v>
+        <v>84.10999438066821</v>
       </c>
       <c r="V25" t="n">
-        <v>13.34905018543822</v>
+        <v>23.5377598455682</v>
       </c>
       <c r="W25" t="n">
-        <v>14.43426892631235</v>
+        <v>43.54245722330854</v>
       </c>
       <c r="X25" t="n">
-        <v>3.569768695511284</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.76998950811065</v>
+        <v>24.51108458862918</v>
       </c>
       <c r="Z25" t="n">
-        <v>33.65456218062351</v>
+        <v>8.050926825974289</v>
       </c>
       <c r="AA25" t="n">
-        <v>53.00352986128485</v>
+        <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.42213026136254</v>
+        <v>17.25019654835226</v>
       </c>
       <c r="AC25" t="n">
-        <v>18.69518275753569</v>
+        <v>9.257304579938904</v>
       </c>
       <c r="AD25" t="n">
-        <v>18.92093946650154</v>
+        <v>1.407672954439125</v>
       </c>
       <c r="AE25" t="n">
-        <v>32.48762112292768</v>
+        <v>27.84734443240987</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.4118607211799867</v>
+        <v>8.335846365204262</v>
       </c>
       <c r="AG25" t="n">
-        <v>4.107743609974693</v>
+        <v>8.123139727386182</v>
       </c>
       <c r="AH25" t="n">
-        <v>3.720244111983465</v>
+        <v>0</v>
       </c>
       <c r="AI25" t="n">
-        <v>2.258665732836825</v>
+        <v>3.104104371582321</v>
       </c>
       <c r="AJ25" t="n">
-        <v>24.23305883610173</v>
+        <v>1.631832954750386</v>
       </c>
       <c r="AK25" t="n">
-        <v>0.9161418750053838</v>
+        <v>3.175428276775723</v>
       </c>
       <c r="AL25" t="n">
-        <v>3.831147738889028</v>
+        <v>0.2239271560918583</v>
       </c>
       <c r="AM25" t="n">
-        <v>21.95786164693681</v>
+        <v>11.89669643100887</v>
       </c>
       <c r="AN25" t="n">
-        <v>0.9285592654756637</v>
+        <v>1.435638318809979</v>
       </c>
       <c r="AO25" t="n">
-        <v>2.08273615543415</v>
+        <v>6.60993498265098</v>
       </c>
       <c r="AP25" t="n">
-        <v>0</v>
+        <v>3.288135553092837</v>
       </c>
       <c r="AQ25" t="n">
-        <v>6.531687204802413</v>
+        <v>5.555212143599007</v>
       </c>
       <c r="AR25" t="n">
-        <v>4.230284891091125</v>
+        <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>8.978091607460881</v>
+        <v>2.522860883691453</v>
       </c>
       <c r="AT25" t="n">
-        <v>13.83548338434829</v>
+        <v>6.259425155937032</v>
       </c>
       <c r="AU25" t="n">
-        <v>9.072958507023271</v>
+        <v>7.286600551627229</v>
       </c>
       <c r="AV25" t="n">
-        <v>8.56306274344154</v>
+        <v>5.889183212017942</v>
       </c>
       <c r="AW25" t="n">
-        <v>12.1166287958559</v>
+        <v>0</v>
       </c>
       <c r="AX25" t="n">
-        <v>13.97180061122348</v>
+        <v>13.19106813955721</v>
       </c>
     </row>
     <row r="26">
@@ -4341,148 +4341,148 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>18.14043074059233</v>
+        <v>23.80248880057973</v>
       </c>
       <c r="D26" t="n">
-        <v>15.01644905860343</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>36.49945055302022</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>20.49931563544893</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>11.94579958844647</v>
+        <v>98.3628862748686</v>
       </c>
       <c r="H26" t="n">
-        <v>195.4515531136489</v>
+        <v>29.72465936337883</v>
       </c>
       <c r="I26" t="n">
-        <v>45.4184100318285</v>
+        <v>66.45809993229501</v>
       </c>
       <c r="J26" t="n">
-        <v>80.70040539604172</v>
+        <v>76.96955109739757</v>
       </c>
       <c r="K26" t="n">
-        <v>126.6793113237402</v>
+        <v>40.87812758386265</v>
       </c>
       <c r="L26" t="n">
-        <v>21.26027254956367</v>
+        <v>29.93861723229433</v>
       </c>
       <c r="M26" t="n">
-        <v>18.60702472691762</v>
+        <v>84.4759854917552</v>
       </c>
       <c r="N26" t="n">
-        <v>76.86504964557369</v>
+        <v>95.06155289819193</v>
       </c>
       <c r="O26" t="n">
-        <v>49.37573321348034</v>
+        <v>121.8813468175075</v>
       </c>
       <c r="P26" t="n">
-        <v>102.3362786673219</v>
+        <v>29.41014640652686</v>
       </c>
       <c r="Q26" t="n">
-        <v>64.6948922086372</v>
+        <v>33.1068382407886</v>
       </c>
       <c r="R26" t="n">
-        <v>41.38640317054067</v>
+        <v>54.1147106216881</v>
       </c>
       <c r="S26" t="n">
-        <v>106.698833441515</v>
+        <v>58.39398253981324</v>
       </c>
       <c r="T26" t="n">
-        <v>68.46779391559649</v>
+        <v>119.2584089941959</v>
       </c>
       <c r="U26" t="n">
-        <v>31.64830704802335</v>
+        <v>54.80190750890051</v>
       </c>
       <c r="V26" t="n">
-        <v>40.30626654145918</v>
+        <v>38.07483318021179</v>
       </c>
       <c r="W26" t="n">
-        <v>74.15524751219775</v>
+        <v>54.91747598636366</v>
       </c>
       <c r="X26" t="n">
-        <v>79.77553231608145</v>
+        <v>24.26820047751664</v>
       </c>
       <c r="Y26" t="n">
-        <v>192.4473722437153</v>
+        <v>44.02318702064327</v>
       </c>
       <c r="Z26" t="n">
-        <v>42.36833784060002</v>
+        <v>57.03114492205876</v>
       </c>
       <c r="AA26" t="n">
-        <v>44.75652847720524</v>
+        <v>119.9873379973825</v>
       </c>
       <c r="AB26" t="n">
-        <v>119.4617660464392</v>
+        <v>100.4953592349519</v>
       </c>
       <c r="AC26" t="n">
-        <v>55.71853216465776</v>
+        <v>134.1946354102785</v>
       </c>
       <c r="AD26" t="n">
-        <v>105.8380539377854</v>
+        <v>87.05182275136654</v>
       </c>
       <c r="AE26" t="n">
-        <v>91.01761956351645</v>
+        <v>152.3362574223005</v>
       </c>
       <c r="AF26" t="n">
-        <v>88.7006632885235</v>
+        <v>104.8735399917327</v>
       </c>
       <c r="AG26" t="n">
-        <v>147.2219239397374</v>
+        <v>74.97513968916215</v>
       </c>
       <c r="AH26" t="n">
-        <v>193.2383952731623</v>
+        <v>107.6267506741821</v>
       </c>
       <c r="AI26" t="n">
-        <v>106.2352483343327</v>
+        <v>37.95710698927413</v>
       </c>
       <c r="AJ26" t="n">
-        <v>162.7523587437415</v>
+        <v>117.8370707146244</v>
       </c>
       <c r="AK26" t="n">
-        <v>91.54342427133273</v>
+        <v>138.9609079508335</v>
       </c>
       <c r="AL26" t="n">
-        <v>50.05538464783497</v>
+        <v>41.0896212957082</v>
       </c>
       <c r="AM26" t="n">
-        <v>36.94902025134088</v>
+        <v>66.9427473529547</v>
       </c>
       <c r="AN26" t="n">
-        <v>59.51803778359167</v>
+        <v>17.62429312423467</v>
       </c>
       <c r="AO26" t="n">
-        <v>26.90893067484667</v>
+        <v>20.82676806791309</v>
       </c>
       <c r="AP26" t="n">
-        <v>25.88951929047895</v>
+        <v>38.72318456756366</v>
       </c>
       <c r="AQ26" t="n">
-        <v>18.6537976218555</v>
+        <v>27.75002331675157</v>
       </c>
       <c r="AR26" t="n">
-        <v>22.29937412074374</v>
+        <v>63.79577701351756</v>
       </c>
       <c r="AS26" t="n">
-        <v>20.39892173692368</v>
+        <v>15.7469925643115</v>
       </c>
       <c r="AT26" t="n">
-        <v>20.97123713855813</v>
+        <v>21.56777241424015</v>
       </c>
       <c r="AU26" t="n">
-        <v>15.39580215215287</v>
+        <v>26.21388115472544</v>
       </c>
       <c r="AV26" t="n">
-        <v>21.83385042315075</v>
+        <v>20.86305179614142</v>
       </c>
       <c r="AW26" t="n">
-        <v>16.94775163400632</v>
+        <v>18.99529413152102</v>
       </c>
       <c r="AX26" t="n">
-        <v>17.08510021633037</v>
+        <v>24.59361496974342</v>
       </c>
     </row>
     <row r="27">
@@ -4493,148 +4493,148 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>3.969978288357205</v>
+        <v>2.278925209156674</v>
       </c>
       <c r="D27" t="n">
-        <v>3.296366294698377</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1.023628485276927</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>2.84174520942947</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>3.443445990045075</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>2.482545313907691</v>
+        <v>4.090867344930853</v>
       </c>
       <c r="I27" t="n">
-        <v>3.920881029312659</v>
+        <v>7.147913525440992</v>
       </c>
       <c r="J27" t="n">
-        <v>5.831362610225643</v>
+        <v>6.110968566246365</v>
       </c>
       <c r="K27" t="n">
-        <v>5.287703768906796</v>
+        <v>5.153852654613169</v>
       </c>
       <c r="L27" t="n">
-        <v>14.02234144573604</v>
+        <v>11.63967263383947</v>
       </c>
       <c r="M27" t="n">
-        <v>6.808231159197483</v>
+        <v>2.146143006021042</v>
       </c>
       <c r="N27" t="n">
-        <v>8.065904441325339</v>
+        <v>3.595849026196401</v>
       </c>
       <c r="O27" t="n">
-        <v>1.615803936152639</v>
+        <v>2.314841431702793</v>
       </c>
       <c r="P27" t="n">
-        <v>2.401462536691313</v>
+        <v>1.297918634107325</v>
       </c>
       <c r="Q27" t="n">
-        <v>11.84964777359835</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>4.171880407273616</v>
+        <v>2.849681941396011</v>
       </c>
       <c r="S27" t="n">
-        <v>10.13777243605095</v>
+        <v>4.254349712630355</v>
       </c>
       <c r="T27" t="n">
-        <v>6.617655835473681</v>
+        <v>5.244392235684912</v>
       </c>
       <c r="U27" t="n">
-        <v>4.715686805667083</v>
+        <v>3.30407773315999</v>
       </c>
       <c r="V27" t="n">
-        <v>4.906436156778596</v>
+        <v>3.365313813120644</v>
       </c>
       <c r="W27" t="n">
-        <v>5.236026810543406</v>
+        <v>2.506932370716965</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>3.029200069149297</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.88251238555647</v>
+        <v>3.833629210553107</v>
       </c>
       <c r="Z27" t="n">
-        <v>4.251080256534062</v>
+        <v>3.548756922349682</v>
       </c>
       <c r="AA27" t="n">
-        <v>4.865454726028069</v>
+        <v>5.749689327751415</v>
       </c>
       <c r="AB27" t="n">
-        <v>7.548617814508988</v>
+        <v>3.70447772634124</v>
       </c>
       <c r="AC27" t="n">
-        <v>4.831498659728621</v>
+        <v>6.839248747944894</v>
       </c>
       <c r="AD27" t="n">
-        <v>7.352842592491518</v>
+        <v>7.78378381179974</v>
       </c>
       <c r="AE27" t="n">
-        <v>5.684837905626704</v>
+        <v>7.482916391120424</v>
       </c>
       <c r="AF27" t="n">
-        <v>6.377106395966757</v>
+        <v>5.823890030031995</v>
       </c>
       <c r="AG27" t="n">
-        <v>3.136492811928165</v>
+        <v>5.139348217262161</v>
       </c>
       <c r="AH27" t="n">
-        <v>5.860854913039002</v>
+        <v>5.327702924779198</v>
       </c>
       <c r="AI27" t="n">
-        <v>5.23868896503421</v>
+        <v>6.319104959514345</v>
       </c>
       <c r="AJ27" t="n">
-        <v>6.311241906837333</v>
+        <v>4.820746706796535</v>
       </c>
       <c r="AK27" t="n">
-        <v>6.79184167718935</v>
+        <v>5.788684375813736</v>
       </c>
       <c r="AL27" t="n">
-        <v>3.711773535852939</v>
+        <v>6.17625528235763</v>
       </c>
       <c r="AM27" t="n">
-        <v>3.533515474166855</v>
+        <v>5.799334286586988</v>
       </c>
       <c r="AN27" t="n">
-        <v>8.043999973710461</v>
+        <v>2.893517985373756</v>
       </c>
       <c r="AO27" t="n">
-        <v>2.796886261385993</v>
+        <v>4.501330081763273</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.511997090011486</v>
+        <v>4.863967901262678</v>
       </c>
       <c r="AQ27" t="n">
-        <v>4.557134835193726</v>
+        <v>5.647575487920924</v>
       </c>
       <c r="AR27" t="n">
-        <v>9.844620374471255</v>
+        <v>4.097313224226197</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.205730999255638</v>
+        <v>3.125481029178371</v>
       </c>
       <c r="AT27" t="n">
-        <v>4.079810618717141</v>
+        <v>3.382618836212627</v>
       </c>
       <c r="AU27" t="n">
-        <v>4.852164178874062</v>
+        <v>4.963954986172425</v>
       </c>
       <c r="AV27" t="n">
-        <v>2.425779917312824</v>
+        <v>0.6926868447706023</v>
       </c>
       <c r="AW27" t="n">
-        <v>3.456031216293718</v>
+        <v>3.240546873991408</v>
       </c>
       <c r="AX27" t="n">
-        <v>0</v>
+        <v>2.258938334689583</v>
       </c>
     </row>
     <row r="28">
@@ -4645,148 +4645,148 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>13.55296862718347</v>
+        <v>10.11633808371327</v>
       </c>
       <c r="D28" t="n">
-        <v>9.279159694142626</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>17.37382605915296</v>
+        <v>35.69974439817033</v>
       </c>
       <c r="F28" t="n">
-        <v>36.71650967961236</v>
+        <v>33.04266626502851</v>
       </c>
       <c r="G28" t="n">
-        <v>25.37600119048495</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>15.60457482669956</v>
+        <v>25.12534466159961</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>8.09280803187637</v>
+        <v>13.57870593931446</v>
       </c>
       <c r="K28" t="n">
-        <v>94.63108129803855</v>
+        <v>30.53070293774258</v>
       </c>
       <c r="L28" t="n">
-        <v>41.29078323747255</v>
+        <v>18.11792042054384</v>
       </c>
       <c r="M28" t="n">
-        <v>101.9249092121937</v>
+        <v>49.63050509717474</v>
       </c>
       <c r="N28" t="n">
-        <v>33.89163820156217</v>
+        <v>116.7842694181223</v>
       </c>
       <c r="O28" t="n">
-        <v>99.21493915764415</v>
+        <v>69.58711963579776</v>
       </c>
       <c r="P28" t="n">
-        <v>27.75478053997505</v>
+        <v>33.43453713457462</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.6854232783553087</v>
+        <v>47.64085964122837</v>
       </c>
       <c r="R28" t="n">
-        <v>68.3835310500298</v>
+        <v>39.41450331895553</v>
       </c>
       <c r="S28" t="n">
-        <v>32.97164307482174</v>
+        <v>54.26070037786184</v>
       </c>
       <c r="T28" t="n">
-        <v>45.4009963465276</v>
+        <v>41.4034484482714</v>
       </c>
       <c r="U28" t="n">
-        <v>158.5398765645108</v>
+        <v>97.81096917628527</v>
       </c>
       <c r="V28" t="n">
-        <v>84.01555811683721</v>
+        <v>74.34249941628894</v>
       </c>
       <c r="W28" t="n">
-        <v>53.72329050838838</v>
+        <v>46.18882654094444</v>
       </c>
       <c r="X28" t="n">
-        <v>60.31592677389766</v>
+        <v>32.65871562499876</v>
       </c>
       <c r="Y28" t="n">
-        <v>141.6575460300607</v>
+        <v>66.66921628326993</v>
       </c>
       <c r="Z28" t="n">
-        <v>72.21669150235505</v>
+        <v>65.6629117430885</v>
       </c>
       <c r="AA28" t="n">
-        <v>50.1565818686723</v>
+        <v>52.90470262589493</v>
       </c>
       <c r="AB28" t="n">
-        <v>49.52715523665408</v>
+        <v>44.6045714454835</v>
       </c>
       <c r="AC28" t="n">
-        <v>97.46130784647289</v>
+        <v>86.27894732222407</v>
       </c>
       <c r="AD28" t="n">
-        <v>74.50637385248966</v>
+        <v>64.18871613755088</v>
       </c>
       <c r="AE28" t="n">
-        <v>98.21574223199364</v>
+        <v>84.50331099381076</v>
       </c>
       <c r="AF28" t="n">
-        <v>56.73501713477213</v>
+        <v>76.51078397514502</v>
       </c>
       <c r="AG28" t="n">
-        <v>38.8101875791841</v>
+        <v>52.23959272599488</v>
       </c>
       <c r="AH28" t="n">
-        <v>27.67884673962651</v>
+        <v>73.07954319901025</v>
       </c>
       <c r="AI28" t="n">
-        <v>27.12750778207389</v>
+        <v>51.38738644925273</v>
       </c>
       <c r="AJ28" t="n">
-        <v>32.57737929454107</v>
+        <v>32.65800949839609</v>
       </c>
       <c r="AK28" t="n">
-        <v>29.8606230952394</v>
+        <v>51.39835643687306</v>
       </c>
       <c r="AL28" t="n">
-        <v>52.28051747394809</v>
+        <v>16.7868689460487</v>
       </c>
       <c r="AM28" t="n">
-        <v>30.60342463312811</v>
+        <v>14.21165061167028</v>
       </c>
       <c r="AN28" t="n">
-        <v>28.73806948336934</v>
+        <v>21.12240751190705</v>
       </c>
       <c r="AO28" t="n">
-        <v>12.78515609897427</v>
+        <v>15.82399840949784</v>
       </c>
       <c r="AP28" t="n">
-        <v>16.88797228097419</v>
+        <v>18.53748656968395</v>
       </c>
       <c r="AQ28" t="n">
-        <v>15.01481702069417</v>
+        <v>23.93718434429629</v>
       </c>
       <c r="AR28" t="n">
-        <v>7.771536546724845</v>
+        <v>4.559261337874712</v>
       </c>
       <c r="AS28" t="n">
-        <v>13.9183584441089</v>
+        <v>14.47621811202518</v>
       </c>
       <c r="AT28" t="n">
-        <v>11.67783818609733</v>
+        <v>17.40687820081641</v>
       </c>
       <c r="AU28" t="n">
-        <v>10.13685376748427</v>
+        <v>9.64822067158639</v>
       </c>
       <c r="AV28" t="n">
-        <v>10.20443709969349</v>
+        <v>16.24348527560463</v>
       </c>
       <c r="AW28" t="n">
-        <v>8.130310836895204</v>
+        <v>4.352503242181912</v>
       </c>
       <c r="AX28" t="n">
-        <v>13.10566454505235</v>
+        <v>17.77523321472601</v>
       </c>
     </row>
     <row r="29">
@@ -4797,148 +4797,148 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>2.453106379985983</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>26.22954822441372</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>22.54151104850561</v>
+        <v>6.975774091021473</v>
       </c>
       <c r="F29" t="n">
-        <v>43.26191316221065</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>4.21774453980818</v>
       </c>
       <c r="H29" t="n">
-        <v>8.124758736401251</v>
+        <v>15.584595323417</v>
       </c>
       <c r="I29" t="n">
-        <v>28.55826069984006</v>
+        <v>20.77647734405135</v>
       </c>
       <c r="J29" t="n">
-        <v>37.85884162952338</v>
+        <v>58.73124359420691</v>
       </c>
       <c r="K29" t="n">
-        <v>98.64387837262237</v>
+        <v>7.302169830316491</v>
       </c>
       <c r="L29" t="n">
-        <v>39.70652838946975</v>
+        <v>17.01415673773302</v>
       </c>
       <c r="M29" t="n">
-        <v>22.32528037900561</v>
+        <v>208.5144186043044</v>
       </c>
       <c r="N29" t="n">
-        <v>33.55227840572876</v>
+        <v>44.24578258145552</v>
       </c>
       <c r="O29" t="n">
-        <v>191.8184059831851</v>
+        <v>90.88895765706013</v>
       </c>
       <c r="P29" t="n">
-        <v>94.73865896061382</v>
+        <v>38.13375011759712</v>
       </c>
       <c r="Q29" t="n">
-        <v>19.32909861548664</v>
+        <v>162.6601580747101</v>
       </c>
       <c r="R29" t="n">
-        <v>23.54085074331519</v>
+        <v>54.50320292669509</v>
       </c>
       <c r="S29" t="n">
-        <v>43.1020791124243</v>
+        <v>49.07899017798444</v>
       </c>
       <c r="T29" t="n">
-        <v>9.259533417047795</v>
+        <v>80.78481248216046</v>
       </c>
       <c r="U29" t="n">
-        <v>108.2506934219625</v>
+        <v>66.75809775116215</v>
       </c>
       <c r="V29" t="n">
-        <v>192.301289861459</v>
+        <v>14.29293594792005</v>
       </c>
       <c r="W29" t="n">
-        <v>45.75909681178173</v>
+        <v>35.41500555952132</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>112.1259981121756</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.8201900585837822</v>
+        <v>42.84945491616878</v>
       </c>
       <c r="Z29" t="n">
-        <v>21.17643586947187</v>
+        <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>28.5101581210626</v>
+        <v>22.14510949669305</v>
       </c>
       <c r="AB29" t="n">
-        <v>1.815272216898039</v>
+        <v>22.5516062724371</v>
       </c>
       <c r="AC29" t="n">
-        <v>53.87671982669174</v>
+        <v>62.60549821257077</v>
       </c>
       <c r="AD29" t="n">
-        <v>38.93932230198422</v>
+        <v>30.01478583754426</v>
       </c>
       <c r="AE29" t="n">
-        <v>35.40150355074534</v>
+        <v>74.65973251833829</v>
       </c>
       <c r="AF29" t="n">
-        <v>43.64196951588114</v>
+        <v>22.66147826437532</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>46.1815701493389</v>
       </c>
       <c r="AH29" t="n">
-        <v>82.55093246946686</v>
+        <v>29.86824545655202</v>
       </c>
       <c r="AI29" t="n">
-        <v>22.62552463019444</v>
+        <v>11.41373694744644</v>
       </c>
       <c r="AJ29" t="n">
-        <v>125.1716342103816</v>
+        <v>26.96971380891586</v>
       </c>
       <c r="AK29" t="n">
-        <v>64.27760509021451</v>
+        <v>14.42020659230813</v>
       </c>
       <c r="AL29" t="n">
-        <v>18.56840963724327</v>
+        <v>26.58806365330443</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>25.41212174744818</v>
       </c>
       <c r="AN29" t="n">
-        <v>17.71398949501712</v>
+        <v>22.29457069557183</v>
       </c>
       <c r="AO29" t="n">
-        <v>0.8065816441729874</v>
+        <v>32.96799425226843</v>
       </c>
       <c r="AP29" t="n">
-        <v>34.29899361715036</v>
+        <v>23.99956206489584</v>
       </c>
       <c r="AQ29" t="n">
-        <v>19.66858272199208</v>
+        <v>18.10915848119032</v>
       </c>
       <c r="AR29" t="n">
-        <v>20.92188638740005</v>
+        <v>27.97317607512516</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.616758148801013</v>
+        <v>21.36855388874672</v>
       </c>
       <c r="AT29" t="n">
-        <v>38.4521485408635</v>
+        <v>27.67764764484969</v>
       </c>
       <c r="AU29" t="n">
-        <v>45.23944653458071</v>
+        <v>14.9813614020425</v>
       </c>
       <c r="AV29" t="n">
-        <v>7.976661822480988</v>
+        <v>37.60141395380727</v>
       </c>
       <c r="AW29" t="n">
-        <v>9.539480644888258</v>
+        <v>12.06958574937956</v>
       </c>
       <c r="AX29" t="n">
-        <v>27.97111571450726</v>
+        <v>23.67119545886377</v>
       </c>
     </row>
     <row r="30">
@@ -4949,148 +4949,148 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>2.933328071333465</v>
+        <v>2.279320402724223</v>
       </c>
       <c r="D30" t="n">
-        <v>6.546403042783352</v>
+        <v>2.649679092581698</v>
       </c>
       <c r="E30" t="n">
-        <v>4.192245025185554</v>
+        <v>10.2909114532283</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1.956507318183083</v>
       </c>
       <c r="G30" t="n">
-        <v>4.833432369254433</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>4.12214947559524</v>
+        <v>7.382334113832966</v>
       </c>
       <c r="I30" t="n">
-        <v>2.240245493370506</v>
+        <v>21.12155335007214</v>
       </c>
       <c r="J30" t="n">
-        <v>27.8088709734619</v>
+        <v>7.198178224629145</v>
       </c>
       <c r="K30" t="n">
-        <v>36.6913857420186</v>
+        <v>31.09714824130801</v>
       </c>
       <c r="L30" t="n">
-        <v>11.10391688774973</v>
+        <v>12.16190127033381</v>
       </c>
       <c r="M30" t="n">
-        <v>7.711100768185164</v>
+        <v>16.62103068474275</v>
       </c>
       <c r="N30" t="n">
-        <v>52.37430939475634</v>
+        <v>83.90127386414727</v>
       </c>
       <c r="O30" t="n">
-        <v>4.828646597325924</v>
+        <v>16.88349501081942</v>
       </c>
       <c r="P30" t="n">
-        <v>21.24495673124226</v>
+        <v>47.70324781681403</v>
       </c>
       <c r="Q30" t="n">
-        <v>5.047927237315056</v>
+        <v>26.16881831718035</v>
       </c>
       <c r="R30" t="n">
-        <v>17.2010645238779</v>
+        <v>23.75696068118426</v>
       </c>
       <c r="S30" t="n">
-        <v>18.61780179719506</v>
+        <v>49.85129099444526</v>
       </c>
       <c r="T30" t="n">
-        <v>33.72461158789173</v>
+        <v>21.94777302318958</v>
       </c>
       <c r="U30" t="n">
-        <v>10.78014511507421</v>
+        <v>15.80538006294271</v>
       </c>
       <c r="V30" t="n">
-        <v>20.57760794869752</v>
+        <v>128.5506564809175</v>
       </c>
       <c r="W30" t="n">
-        <v>31.13612186763252</v>
+        <v>23.32438719708454</v>
       </c>
       <c r="X30" t="n">
-        <v>44.83491093997888</v>
+        <v>10.78746654167164</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.14747185304186</v>
+        <v>14.37032654014822</v>
       </c>
       <c r="Z30" t="n">
-        <v>13.77583524732256</v>
+        <v>15.58071545633791</v>
       </c>
       <c r="AA30" t="n">
-        <v>8.633705385921768</v>
+        <v>12.67436363678478</v>
       </c>
       <c r="AB30" t="n">
-        <v>18.68710528700222</v>
+        <v>45.91440365788052</v>
       </c>
       <c r="AC30" t="n">
-        <v>15.86721933152639</v>
+        <v>19.70455666177445</v>
       </c>
       <c r="AD30" t="n">
-        <v>8.768709420447411</v>
+        <v>13.26852457919496</v>
       </c>
       <c r="AE30" t="n">
-        <v>11.12293102988284</v>
+        <v>15.96974187127462</v>
       </c>
       <c r="AF30" t="n">
-        <v>20.45453789829582</v>
+        <v>16.56851795562099</v>
       </c>
       <c r="AG30" t="n">
-        <v>10.11593157032762</v>
+        <v>10.7164883953096</v>
       </c>
       <c r="AH30" t="n">
-        <v>12.59595979140465</v>
+        <v>20.28358338550776</v>
       </c>
       <c r="AI30" t="n">
-        <v>9.684859107022314</v>
+        <v>9.344700339202793</v>
       </c>
       <c r="AJ30" t="n">
-        <v>6.683136048627241</v>
+        <v>11.15752203777918</v>
       </c>
       <c r="AK30" t="n">
-        <v>3.567072274345498</v>
+        <v>7.308817931800981</v>
       </c>
       <c r="AL30" t="n">
-        <v>7.575673729085879</v>
+        <v>2.708049890342027</v>
       </c>
       <c r="AM30" t="n">
-        <v>4.804212911586752</v>
+        <v>9.853514493610032</v>
       </c>
       <c r="AN30" t="n">
-        <v>6.12320548798001</v>
+        <v>5.459863643171476</v>
       </c>
       <c r="AO30" t="n">
-        <v>0.7654866049653812</v>
+        <v>4.695950409797727</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.070364520389257</v>
+        <v>2.594426832686164</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.7513252530440696</v>
+        <v>5.629821911102299</v>
       </c>
       <c r="AR30" t="n">
-        <v>5.656980732830906</v>
+        <v>1.892368868495778</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.79782135998266</v>
+        <v>2.00109195447958</v>
       </c>
       <c r="AT30" t="n">
-        <v>5.066566254857368</v>
+        <v>4.378842676044795</v>
       </c>
       <c r="AU30" t="n">
-        <v>3.829790789845753</v>
+        <v>1.291590097662781</v>
       </c>
       <c r="AV30" t="n">
-        <v>0.8143927613704705</v>
+        <v>3.779385799351455</v>
       </c>
       <c r="AW30" t="n">
-        <v>4.508747430102698</v>
+        <v>2.105519481317232</v>
       </c>
       <c r="AX30" t="n">
-        <v>2.291654885151048</v>
+        <v>0.9884170557790105</v>
       </c>
     </row>
     <row r="31">
@@ -5101,148 +5101,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>16.97229954693643</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>19.02502890437709</v>
+        <v>3.960913114639578</v>
       </c>
       <c r="E31" t="n">
-        <v>5.307195093081998</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>69.44035647598331</v>
+        <v>18.93002763794336</v>
       </c>
       <c r="G31" t="n">
-        <v>3.714637052106908</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>19.57965148425138</v>
+        <v>14.91904294224118</v>
       </c>
       <c r="I31" t="n">
-        <v>35.60376541542534</v>
+        <v>21.17712996828432</v>
       </c>
       <c r="J31" t="n">
-        <v>128.6074451684635</v>
+        <v>45.86959047399026</v>
       </c>
       <c r="K31" t="n">
-        <v>72.27055280225632</v>
+        <v>40.43891750332902</v>
       </c>
       <c r="L31" t="n">
-        <v>98.38634990953857</v>
+        <v>20.63393204613227</v>
       </c>
       <c r="M31" t="n">
-        <v>66.74466974910928</v>
+        <v>80.26821363523928</v>
       </c>
       <c r="N31" t="n">
-        <v>296.8756477196009</v>
+        <v>63.54343605010758</v>
       </c>
       <c r="O31" t="n">
-        <v>106.4331973491846</v>
+        <v>53.72349847652672</v>
       </c>
       <c r="P31" t="n">
-        <v>47.54445646221701</v>
+        <v>7.781916281040947</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.8123891960974</v>
+        <v>1.692298702228648</v>
       </c>
       <c r="R31" t="n">
-        <v>26.13338078621226</v>
+        <v>124.1074689976796</v>
       </c>
       <c r="S31" t="n">
-        <v>2.838328582474092</v>
+        <v>35.97053076208162</v>
       </c>
       <c r="T31" t="n">
-        <v>13.1424103116346</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>36.06711586820344</v>
       </c>
       <c r="V31" t="n">
-        <v>3.43137177472191</v>
+        <v>46.18742683352819</v>
       </c>
       <c r="W31" t="n">
-        <v>1.399778581001559</v>
+        <v>13.89057968063949</v>
       </c>
       <c r="X31" t="n">
-        <v>6.230778507832176</v>
+        <v>11.18620123600786</v>
       </c>
       <c r="Y31" t="n">
-        <v>26.44620225753259</v>
+        <v>4.815264197427874</v>
       </c>
       <c r="Z31" t="n">
-        <v>33.25053806942809</v>
+        <v>22.64574719226264</v>
       </c>
       <c r="AA31" t="n">
-        <v>12.65048940082095</v>
+        <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>8.729992773244453</v>
+        <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>23.72768279619394</v>
+        <v>12.06404369635086</v>
       </c>
       <c r="AD31" t="n">
-        <v>16.15710051515447</v>
+        <v>49.72771575933132</v>
       </c>
       <c r="AE31" t="n">
-        <v>3.663611741766043</v>
+        <v>8.73053969700722</v>
       </c>
       <c r="AF31" t="n">
-        <v>10.08671051021182</v>
+        <v>3.646630673647926</v>
       </c>
       <c r="AG31" t="n">
-        <v>1.13175846024406</v>
+        <v>17.14903692946653</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.9169034091429649</v>
+        <v>0.8551417752439538</v>
       </c>
       <c r="AI31" t="n">
-        <v>13.91810774445337</v>
+        <v>14.04746719198189</v>
       </c>
       <c r="AJ31" t="n">
-        <v>3.145202925484928</v>
+        <v>2.600219735345432</v>
       </c>
       <c r="AK31" t="n">
-        <v>8.284876679643968</v>
+        <v>6.074230247043368</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>6.655265858855095</v>
       </c>
       <c r="AM31" t="n">
-        <v>7.066566446259952</v>
+        <v>3.715221147015519</v>
       </c>
       <c r="AN31" t="n">
-        <v>2.465214520152704</v>
+        <v>0</v>
       </c>
       <c r="AO31" t="n">
-        <v>6.87639324232252</v>
+        <v>4.10346027940743</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.776169893256108</v>
+        <v>3.002394502284256</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0</v>
+        <v>8.403809225333134</v>
       </c>
       <c r="AR31" t="n">
-        <v>5.690594147085578</v>
+        <v>7.959236576407356</v>
       </c>
       <c r="AS31" t="n">
-        <v>3.595654084413663</v>
+        <v>2.198850369395077</v>
       </c>
       <c r="AT31" t="n">
-        <v>26.85832225017745</v>
+        <v>12.29674716045732</v>
       </c>
       <c r="AU31" t="n">
-        <v>0.1993466863910363</v>
+        <v>0</v>
       </c>
       <c r="AV31" t="n">
-        <v>3.220268597815315</v>
+        <v>15.01387249680196</v>
       </c>
       <c r="AW31" t="n">
-        <v>0.5960722847816893</v>
+        <v>7.207195024760031</v>
       </c>
       <c r="AX31" t="n">
-        <v>7.446448465901581</v>
+        <v>17.31396522012873</v>
       </c>
     </row>
   </sheetData>
